--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9848551347728499</v>
+        <v>1.030123780779203</v>
       </c>
       <c r="D2">
-        <v>1.00568722297284</v>
+        <v>1.044868502591054</v>
       </c>
       <c r="E2">
-        <v>0.9937843225522187</v>
+        <v>1.041028359844453</v>
       </c>
       <c r="F2">
-        <v>0.9935297075180456</v>
+        <v>1.050096939914195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0394027662338</v>
+        <v>1.05321751796076</v>
       </c>
       <c r="J2">
-        <v>1.007498458590201</v>
+        <v>1.051439367135916</v>
       </c>
       <c r="K2">
-        <v>1.017067890313129</v>
+        <v>1.055736231278241</v>
       </c>
       <c r="L2">
-        <v>1.005330936273281</v>
+        <v>1.051944231610455</v>
       </c>
       <c r="M2">
-        <v>1.005079925912106</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.060899825323963</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9934070265070588</v>
+        <v>1.037722650799263</v>
       </c>
       <c r="D3">
-        <v>1.012116218506772</v>
+        <v>1.05087214576621</v>
       </c>
       <c r="E3">
-        <v>1.001088964053365</v>
+        <v>1.047533508491968</v>
       </c>
       <c r="F3">
-        <v>1.002002186809279</v>
+        <v>1.056841038757527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042163924703287</v>
+        <v>1.055581514877572</v>
       </c>
       <c r="J3">
-        <v>1.014079050609736</v>
+        <v>1.057235237706584</v>
       </c>
       <c r="K3">
-        <v>1.022596382217162</v>
+        <v>1.060892995749606</v>
       </c>
       <c r="L3">
-        <v>1.011707930317794</v>
+        <v>1.057592275172676</v>
       </c>
       <c r="M3">
-        <v>1.012609513223342</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.066794835201915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987489894584577</v>
+        <v>1.042497335916932</v>
       </c>
       <c r="D4">
-        <v>1.016133723470046</v>
+        <v>1.054646590804196</v>
       </c>
       <c r="E4">
-        <v>1.00565801703887</v>
+        <v>1.051626367838234</v>
       </c>
       <c r="F4">
-        <v>1.007302828643907</v>
+        <v>1.061084552100805</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04387144418027</v>
+        <v>1.057054656643483</v>
       </c>
       <c r="J4">
-        <v>1.018184750439436</v>
+        <v>1.060873070330036</v>
       </c>
       <c r="K4">
-        <v>1.026041251527983</v>
+        <v>1.064127353392917</v>
       </c>
       <c r="L4">
-        <v>1.01568863107972</v>
+        <v>1.061139214252459</v>
       </c>
       <c r="M4">
-        <v>1.017313906811582</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.070497668974318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00095183026991</v>
+        <v>1.044472431064827</v>
       </c>
       <c r="D5">
-        <v>1.017790634608783</v>
+        <v>1.056208330780429</v>
       </c>
       <c r="E5">
-        <v>1.007543504335208</v>
+        <v>1.053320627837223</v>
       </c>
       <c r="F5">
-        <v>1.009490544189778</v>
+        <v>1.062841250838529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044571338846071</v>
+        <v>1.057661034568463</v>
       </c>
       <c r="J5">
-        <v>1.019876541758267</v>
+        <v>1.062376882251972</v>
       </c>
       <c r="K5">
-        <v>1.027459642351917</v>
+        <v>1.065463794641297</v>
       </c>
       <c r="L5">
-        <v>1.017329392452474</v>
+        <v>1.062605895844301</v>
       </c>
       <c r="M5">
-        <v>1.019253998633639</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.072029002729125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001319260881052</v>
+        <v>1.044802222918392</v>
       </c>
       <c r="D6">
-        <v>1.01806701422293</v>
+        <v>1.056469123506482</v>
       </c>
       <c r="E6">
-        <v>1.007858078105536</v>
+        <v>1.053603595835097</v>
       </c>
       <c r="F6">
-        <v>1.009855562526704</v>
+        <v>1.063134651471018</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044687829054712</v>
+        <v>1.057762106387231</v>
       </c>
       <c r="J6">
-        <v>1.020158653744093</v>
+        <v>1.062627920125781</v>
       </c>
       <c r="K6">
-        <v>1.02769609807288</v>
+        <v>1.06568685777783</v>
       </c>
       <c r="L6">
-        <v>1.017603022837586</v>
+        <v>1.062850761179476</v>
       </c>
       <c r="M6">
-        <v>1.019577610433184</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.072284672871638</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987785888691618</v>
+        <v>1.042523851314901</v>
       </c>
       <c r="D7">
-        <v>1.016155986546325</v>
+        <v>1.054667555493214</v>
       </c>
       <c r="E7">
-        <v>1.005683346921283</v>
+        <v>1.051649108388925</v>
       </c>
       <c r="F7">
-        <v>1.007332217325688</v>
+        <v>1.061108130416097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04388086547724</v>
+        <v>1.057062809145529</v>
       </c>
       <c r="J7">
-        <v>1.01820748800499</v>
+        <v>1.060893262902838</v>
       </c>
       <c r="K7">
-        <v>1.026060319016641</v>
+        <v>1.064145300910985</v>
       </c>
       <c r="L7">
-        <v>1.015710680926894</v>
+        <v>1.061158906512491</v>
       </c>
       <c r="M7">
-        <v>1.017339975141471</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.070518228537867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9877868614290513</v>
+        <v>1.032722500750651</v>
       </c>
       <c r="D8">
-        <v>1.007890743475059</v>
+        <v>1.046921165315553</v>
       </c>
       <c r="E8">
-        <v>0.9962870851169304</v>
+        <v>1.0432518441808</v>
       </c>
       <c r="F8">
-        <v>0.9964324078939347</v>
+        <v>1.052402032064033</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040352931678143</v>
+        <v>1.054028522569709</v>
       </c>
       <c r="J8">
-        <v>1.009755371670231</v>
+        <v>1.053422276335088</v>
       </c>
       <c r="K8">
-        <v>1.018964880036965</v>
+        <v>1.057500965693717</v>
       </c>
       <c r="L8">
-        <v>1.007517586199115</v>
+        <v>1.053876159509865</v>
       </c>
       <c r="M8">
-        <v>1.007660922333515</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.06291605732261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9667983152324046</v>
+        <v>1.014267840436258</v>
       </c>
       <c r="D9">
-        <v>0.9921299968972189</v>
+        <v>1.032358069270202</v>
       </c>
       <c r="E9">
-        <v>0.978402226378761</v>
+        <v>1.027489313161484</v>
       </c>
       <c r="F9">
-        <v>0.9756914540298064</v>
+        <v>1.036062344323881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033479297699402</v>
+        <v>1.048219008044251</v>
       </c>
       <c r="J9">
-        <v>0.9935805623866515</v>
+        <v>1.039326633045539</v>
       </c>
       <c r="K9">
-        <v>1.005352063102109</v>
+        <v>1.044947101739828</v>
       </c>
       <c r="L9">
-        <v>0.9918557092945672</v>
+        <v>1.040151601363729</v>
       </c>
       <c r="M9">
-        <v>0.989191629874919</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.048596228122503</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9514699150029573</v>
+        <v>1.001021682540477</v>
       </c>
       <c r="D10">
-        <v>0.9806480151348677</v>
+        <v>1.021928682728273</v>
       </c>
       <c r="E10">
-        <v>0.9653901791440214</v>
+        <v>1.016215784006851</v>
       </c>
       <c r="F10">
-        <v>0.9605999983039977</v>
+        <v>1.024377812621054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028372555537218</v>
+        <v>1.043988092114835</v>
       </c>
       <c r="J10">
-        <v>0.9817506822498755</v>
+        <v>1.029194823228999</v>
       </c>
       <c r="K10">
-        <v>0.9953756930255395</v>
+        <v>1.035912982691192</v>
       </c>
       <c r="L10">
-        <v>0.9804137647802493</v>
+        <v>1.03029830238041</v>
       </c>
       <c r="M10">
-        <v>0.9757190352970887</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.038320439239005</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9444475805553789</v>
+        <v>0.9950236154734536</v>
       </c>
       <c r="D11">
-        <v>0.9753982488086064</v>
+        <v>1.017213819158948</v>
       </c>
       <c r="E11">
-        <v>0.9594436910550699</v>
+        <v>1.011122414998896</v>
       </c>
       <c r="F11">
-        <v>0.9537014060498079</v>
+        <v>1.019099190229851</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026014262823133</v>
+        <v>1.0420589435345</v>
       </c>
       <c r="J11">
-        <v>0.9763290343685376</v>
+        <v>1.024604893327712</v>
       </c>
       <c r="K11">
-        <v>0.9907995254289439</v>
+        <v>1.031818248945459</v>
       </c>
       <c r="L11">
-        <v>0.975173229016167</v>
+        <v>1.02583758345309</v>
       </c>
       <c r="M11">
-        <v>0.9695526530944834</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.03366969346972</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9417742917302223</v>
+        <v>0.9927524270007582</v>
       </c>
       <c r="D12">
-        <v>0.9734016806991215</v>
+        <v>1.015429886427855</v>
       </c>
       <c r="E12">
-        <v>0.9571824509330977</v>
+        <v>1.009195697592141</v>
       </c>
       <c r="F12">
-        <v>0.951077692843379</v>
+        <v>1.017102462273857</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02511386639866</v>
+        <v>1.041326575674586</v>
       </c>
       <c r="J12">
-        <v>0.9742649891101172</v>
+        <v>1.022866716223334</v>
       </c>
       <c r="K12">
-        <v>0.9890568417139387</v>
+        <v>1.03026732661078</v>
       </c>
       <c r="L12">
-        <v>0.9731786618887736</v>
+        <v>1.024148817928594</v>
       </c>
       <c r="M12">
-        <v>0.9672062763779112</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.031909180731701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9423507837458538</v>
+        <v>0.9932416281838834</v>
       </c>
       <c r="D13">
-        <v>0.9738321449787715</v>
+        <v>1.015814070264945</v>
       </c>
       <c r="E13">
-        <v>0.957669967633163</v>
+        <v>1.009610612578709</v>
       </c>
       <c r="F13">
-        <v>0.9516433792991722</v>
+        <v>1.017532450852148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025308151410114</v>
+        <v>1.04148440690207</v>
       </c>
       <c r="J13">
-        <v>0.9747100998781029</v>
+        <v>1.02324111586218</v>
       </c>
       <c r="K13">
-        <v>0.9894326728101825</v>
+        <v>1.030601403600699</v>
       </c>
       <c r="L13">
-        <v>0.9736087653923305</v>
+        <v>1.024512552339235</v>
       </c>
       <c r="M13">
-        <v>0.9677122185734479</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.032288359494721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9442279743080382</v>
+        <v>0.9948367842838713</v>
       </c>
       <c r="D14">
-        <v>0.975234192636349</v>
+        <v>1.017067041351659</v>
       </c>
       <c r="E14">
-        <v>0.9592578816932799</v>
+        <v>1.010963880762844</v>
       </c>
       <c r="F14">
-        <v>0.9534858212160168</v>
+        <v>1.018934894015281</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025940348867319</v>
+        <v>1.041998735527769</v>
       </c>
       <c r="J14">
-        <v>0.9761594774778498</v>
+        <v>1.024461911356873</v>
       </c>
       <c r="K14">
-        <v>0.9906563776421524</v>
+        <v>1.031690675788348</v>
       </c>
       <c r="L14">
-        <v>0.975009368735445</v>
+        <v>1.025698656183746</v>
       </c>
       <c r="M14">
-        <v>0.969359879325158</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.033524859885905</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9453757446698183</v>
+        <v>0.9958137601571611</v>
       </c>
       <c r="D15">
-        <v>0.9760917116298312</v>
+        <v>1.017834627262402</v>
       </c>
       <c r="E15">
-        <v>0.9602291157245902</v>
+        <v>1.011792964981792</v>
       </c>
       <c r="F15">
-        <v>0.9546126749705058</v>
+        <v>1.01979411430354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026326554025604</v>
+        <v>1.042313498596032</v>
       </c>
       <c r="J15">
-        <v>0.977045661992177</v>
+        <v>1.025209584620379</v>
       </c>
       <c r="K15">
-        <v>0.9914045152620851</v>
+        <v>1.032357763312544</v>
       </c>
       <c r="L15">
-        <v>0.9758658016611761</v>
+        <v>1.026425146490103</v>
       </c>
       <c r="M15">
-        <v>0.9703674543881212</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.034282243939704</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9519272787080026</v>
+        <v>1.001413911595623</v>
       </c>
       <c r="D16">
-        <v>0.980990175757343</v>
+        <v>1.022237176380513</v>
       </c>
       <c r="E16">
-        <v>0.9657777981175688</v>
+        <v>1.016549104462556</v>
       </c>
       <c r="F16">
-        <v>0.9610496303803708</v>
+        <v>1.024723265596028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028525779564009</v>
+        <v>1.044113977638591</v>
       </c>
       <c r="J16">
-        <v>0.9821037667580135</v>
+        <v>1.029494937875409</v>
       </c>
       <c r="K16">
-        <v>0.995673640265888</v>
+        <v>1.036180678907135</v>
       </c>
       <c r="L16">
-        <v>0.9807551250421637</v>
+        <v>1.030590033297612</v>
       </c>
       <c r="M16">
-        <v>0.9761207855051398</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.038624624213285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.955929197797233</v>
+        <v>1.004853946264859</v>
       </c>
       <c r="D17">
-        <v>0.9839852777293082</v>
+        <v>1.024943705621582</v>
       </c>
       <c r="E17">
-        <v>0.9691711261971986</v>
+        <v>1.019473795277523</v>
       </c>
       <c r="F17">
-        <v>0.9649856197575097</v>
+        <v>1.0277544616307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0298644020665</v>
+        <v>1.045216562770521</v>
       </c>
       <c r="J17">
-        <v>0.9851930339614345</v>
+        <v>1.032126863965551</v>
       </c>
       <c r="K17">
-        <v>0.9982800531536232</v>
+        <v>1.038528073554211</v>
       </c>
       <c r="L17">
-        <v>0.983742187512252</v>
+        <v>1.033148781610843</v>
       </c>
       <c r="M17">
-        <v>0.979636754175307</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.041292746798544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582268327675951</v>
+        <v>1.006835426010132</v>
       </c>
       <c r="D18">
-        <v>0.9857058115699492</v>
+        <v>1.026503393153157</v>
       </c>
       <c r="E18">
-        <v>0.9711206957877848</v>
+        <v>1.021159497593457</v>
       </c>
       <c r="F18">
-        <v>0.9672468055542129</v>
+        <v>1.029501591311319</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030631187130334</v>
+        <v>1.045850398931437</v>
       </c>
       <c r="J18">
-        <v>0.986966477344605</v>
+        <v>1.033642663316925</v>
       </c>
       <c r="K18">
-        <v>0.9997759289280599</v>
+        <v>1.039879805106272</v>
       </c>
       <c r="L18">
-        <v>0.9854572661243525</v>
+        <v>1.034622719586132</v>
       </c>
       <c r="M18">
-        <v>0.981655911681967</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.042829804492912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.959004250560623</v>
+        <v>1.007506921090283</v>
       </c>
       <c r="D19">
-        <v>0.9862881145057013</v>
+        <v>1.027032063815723</v>
       </c>
       <c r="E19">
-        <v>0.9717805644195683</v>
+        <v>1.021730933307976</v>
       </c>
       <c r="F19">
-        <v>0.9680121235843054</v>
+        <v>1.030093857190626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030890329127566</v>
+        <v>1.046064980183677</v>
       </c>
       <c r="J19">
-        <v>0.9875664913154469</v>
+        <v>1.034156307596635</v>
       </c>
       <c r="K19">
-        <v>1.000281966437383</v>
+        <v>1.040337818576953</v>
       </c>
       <c r="L19">
-        <v>0.9860375847702983</v>
+        <v>1.035122226185607</v>
       </c>
       <c r="M19">
-        <v>0.9823391883743253</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.043350721335466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.955503664198134</v>
+        <v>1.0044874785117</v>
       </c>
       <c r="D20">
-        <v>0.9836667005337039</v>
+        <v>1.02465530309309</v>
       </c>
       <c r="E20">
-        <v>0.9688101634735918</v>
+        <v>1.019162115467987</v>
       </c>
       <c r="F20">
-        <v>0.9645669493726987</v>
+        <v>1.02743142745289</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029722245346657</v>
+        <v>1.045099234219288</v>
       </c>
       <c r="J20">
-        <v>0.984864565123914</v>
+        <v>1.031846504683412</v>
       </c>
       <c r="K20">
-        <v>0.9980029629187752</v>
+        <v>1.038278043601864</v>
       </c>
       <c r="L20">
-        <v>0.9834245534869362</v>
+        <v>1.032876187757246</v>
       </c>
       <c r="M20">
-        <v>0.9792628371287555</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.041008488759152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.943677042197878</v>
+        <v>0.9943682774013256</v>
       </c>
       <c r="D21">
-        <v>0.9748226528686579</v>
+        <v>1.016698996966668</v>
       </c>
       <c r="E21">
-        <v>0.958791777798915</v>
+        <v>1.010566363952245</v>
       </c>
       <c r="F21">
-        <v>0.9529450180599911</v>
+        <v>1.01852293040932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025754877346076</v>
+        <v>1.041847725062576</v>
       </c>
       <c r="J21">
-        <v>0.9757341044755832</v>
+        <v>1.024103360384026</v>
       </c>
       <c r="K21">
-        <v>0.990297250041811</v>
+        <v>1.031370760724242</v>
       </c>
       <c r="L21">
-        <v>0.9745982955919047</v>
+        <v>1.025350280852165</v>
       </c>
       <c r="M21">
-        <v>0.9688762804080675</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.033161676977039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9358613440083121</v>
+        <v>0.987753483225427</v>
       </c>
       <c r="D22">
-        <v>0.9689895790934476</v>
+        <v>1.011506175215446</v>
       </c>
       <c r="E22">
-        <v>0.9521858686635329</v>
+        <v>1.00495867776124</v>
       </c>
       <c r="F22">
-        <v>0.9452792013832357</v>
+        <v>1.012711608446859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023117674306236</v>
+        <v>1.039711264941164</v>
       </c>
       <c r="J22">
-        <v>0.9696996484250167</v>
+        <v>1.019040760255723</v>
       </c>
       <c r="K22">
-        <v>0.9852014479411049</v>
+        <v>1.026853087469812</v>
       </c>
       <c r="L22">
-        <v>0.9687680094889378</v>
+        <v>1.020432538174111</v>
       </c>
       <c r="M22">
-        <v>0.9620186345736309</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.028035382994242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9400432859766156</v>
+        <v>0.9912854533788328</v>
       </c>
       <c r="D23">
-        <v>0.9721094603759719</v>
+        <v>1.014278047064182</v>
       </c>
       <c r="E23">
-        <v>0.9557189972772221</v>
+        <v>1.007951781233108</v>
       </c>
       <c r="F23">
-        <v>0.9493795105009499</v>
+        <v>1.015813365182945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024530125707768</v>
+        <v>1.040853017644241</v>
       </c>
       <c r="J23">
-        <v>0.9729284765097695</v>
+        <v>1.021743983152669</v>
       </c>
       <c r="K23">
-        <v>0.9879282830820044</v>
+        <v>1.02926547462705</v>
       </c>
       <c r="L23">
-        <v>0.9718872908180032</v>
+        <v>1.023058139642892</v>
       </c>
       <c r="M23">
-        <v>0.9656872806374339</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.030772220827213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9556960571545964</v>
+        <v>1.004653146595619</v>
       </c>
       <c r="D24">
-        <v>0.983810733266695</v>
+        <v>1.024785678248358</v>
       </c>
       <c r="E24">
-        <v>0.9689733583690265</v>
+        <v>1.019303012423904</v>
       </c>
       <c r="F24">
-        <v>0.9647562349692768</v>
+        <v>1.027577457100132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02978652297533</v>
+        <v>1.045152278539601</v>
       </c>
       <c r="J24">
-        <v>0.9850130736599897</v>
+        <v>1.031973246591187</v>
       </c>
       <c r="K24">
-        <v>0.9981282431523055</v>
+        <v>1.038391075160545</v>
       </c>
       <c r="L24">
-        <v>0.9835681623933796</v>
+        <v>1.032999418271069</v>
       </c>
       <c r="M24">
-        <v>0.9794318915116093</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.041136991899613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9724395698700606</v>
+        <v>1.019193204072837</v>
       </c>
       <c r="D25">
-        <v>0.9963623905873628</v>
+        <v>1.036241444231403</v>
       </c>
       <c r="E25">
-        <v>0.9832017213169635</v>
+        <v>1.031689877350174</v>
       </c>
       <c r="F25">
-        <v>0.9812572257241385</v>
+        <v>1.040416414576129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03534194682145</v>
+        <v>1.049780241418868</v>
       </c>
       <c r="J25">
-        <v>0.9979314328343831</v>
+        <v>1.043091466025897</v>
       </c>
       <c r="K25">
-        <v>1.009017439444903</v>
+        <v>1.048302052183622</v>
       </c>
       <c r="L25">
-        <v>0.9960665291999966</v>
+        <v>1.043815389258616</v>
       </c>
       <c r="M25">
-        <v>0.9941536385458852</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.052418119478822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030123780779203</v>
+        <v>1.002275090378008</v>
       </c>
       <c r="D2">
-        <v>1.044868502591054</v>
+        <v>1.020942977978244</v>
       </c>
       <c r="E2">
-        <v>1.041028359844453</v>
+        <v>1.01675500767707</v>
       </c>
       <c r="F2">
-        <v>1.050096939914195</v>
+        <v>1.023869064997379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05321751796076</v>
+        <v>1.048111622794175</v>
       </c>
       <c r="J2">
-        <v>1.051439367135916</v>
+        <v>1.024387966168012</v>
       </c>
       <c r="K2">
-        <v>1.055736231278241</v>
+        <v>1.032118055031175</v>
       </c>
       <c r="L2">
-        <v>1.051944231610455</v>
+        <v>1.027985751208624</v>
       </c>
       <c r="M2">
-        <v>1.060899825323963</v>
+        <v>1.0350055872786</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037722650799263</v>
+        <v>1.007101859648872</v>
       </c>
       <c r="D3">
-        <v>1.05087214576621</v>
+        <v>1.024561637948739</v>
       </c>
       <c r="E3">
-        <v>1.047533508491968</v>
+        <v>1.020832153879585</v>
       </c>
       <c r="F3">
-        <v>1.056841038757527</v>
+        <v>1.028404440751889</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055581514877572</v>
+        <v>1.049571400710282</v>
       </c>
       <c r="J3">
-        <v>1.057235237706584</v>
+        <v>1.027400775461267</v>
       </c>
       <c r="K3">
-        <v>1.060892995749606</v>
+        <v>1.034889604966478</v>
       </c>
       <c r="L3">
-        <v>1.057592275172676</v>
+        <v>1.031205245389842</v>
       </c>
       <c r="M3">
-        <v>1.066794835201915</v>
+        <v>1.038686336741314</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042497335916932</v>
+        <v>1.010157380420487</v>
       </c>
       <c r="D4">
-        <v>1.054646590804196</v>
+        <v>1.026852238634769</v>
       </c>
       <c r="E4">
-        <v>1.051626367838234</v>
+        <v>1.023419035478969</v>
       </c>
       <c r="F4">
-        <v>1.061084552100805</v>
+        <v>1.031281307377241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057054656643483</v>
+        <v>1.050480990208143</v>
       </c>
       <c r="J4">
-        <v>1.060873070330036</v>
+        <v>1.029304780451824</v>
       </c>
       <c r="K4">
-        <v>1.064127353392917</v>
+        <v>1.036637032620985</v>
       </c>
       <c r="L4">
-        <v>1.061139214252459</v>
+        <v>1.033242796689729</v>
       </c>
       <c r="M4">
-        <v>1.070497668974318</v>
+        <v>1.041016302787554</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044472431064827</v>
+        <v>1.011426315573682</v>
       </c>
       <c r="D5">
-        <v>1.056208330780429</v>
+        <v>1.027803409795432</v>
       </c>
       <c r="E5">
-        <v>1.053320627837223</v>
+        <v>1.024494717930944</v>
       </c>
       <c r="F5">
-        <v>1.062841250838529</v>
+        <v>1.032477399955519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057661034568463</v>
+        <v>1.050855201260821</v>
       </c>
       <c r="J5">
-        <v>1.062376882251972</v>
+        <v>1.030094689768333</v>
       </c>
       <c r="K5">
-        <v>1.065463794641297</v>
+        <v>1.037360977310263</v>
       </c>
       <c r="L5">
-        <v>1.062605895844301</v>
+        <v>1.034088814202798</v>
       </c>
       <c r="M5">
-        <v>1.072029002729125</v>
+        <v>1.041983855135099</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044802222918392</v>
+        <v>1.011638477278667</v>
       </c>
       <c r="D6">
-        <v>1.056469123506482</v>
+        <v>1.027962434821174</v>
       </c>
       <c r="E6">
-        <v>1.053603595835097</v>
+        <v>1.024674647660162</v>
       </c>
       <c r="F6">
-        <v>1.063134651471018</v>
+        <v>1.032677460862052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057762106387231</v>
+        <v>1.05091755870993</v>
       </c>
       <c r="J6">
-        <v>1.062627920125781</v>
+        <v>1.030226711236379</v>
       </c>
       <c r="K6">
-        <v>1.06568685777783</v>
+        <v>1.037481914061534</v>
       </c>
       <c r="L6">
-        <v>1.062850761179476</v>
+        <v>1.034230254776448</v>
       </c>
       <c r="M6">
-        <v>1.072284672871638</v>
+        <v>1.042145621513424</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042523851314901</v>
+        <v>1.0101743965343</v>
       </c>
       <c r="D7">
-        <v>1.054667555493214</v>
+        <v>1.026864994081784</v>
       </c>
       <c r="E7">
-        <v>1.051649108388925</v>
+        <v>1.02343345476756</v>
       </c>
       <c r="F7">
-        <v>1.061108130416097</v>
+        <v>1.031297341405315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057062809145529</v>
+        <v>1.050486022326931</v>
       </c>
       <c r="J7">
-        <v>1.060893262902838</v>
+        <v>1.029315376195549</v>
       </c>
       <c r="K7">
-        <v>1.064145300910985</v>
+        <v>1.03664674752605</v>
       </c>
       <c r="L7">
-        <v>1.061158906512491</v>
+        <v>1.03325414227529</v>
       </c>
       <c r="M7">
-        <v>1.070518228537867</v>
+        <v>1.041029277747638</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032722500750651</v>
+        <v>1.003920717904486</v>
       </c>
       <c r="D8">
-        <v>1.046921165315553</v>
+        <v>1.0221767056223</v>
       </c>
       <c r="E8">
-        <v>1.0432518441808</v>
+        <v>1.018143793497341</v>
       </c>
       <c r="F8">
-        <v>1.052402032064033</v>
+        <v>1.025414099676062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054028522569709</v>
+        <v>1.048612326222588</v>
       </c>
       <c r="J8">
-        <v>1.053422276335088</v>
+        <v>1.025415796575602</v>
       </c>
       <c r="K8">
-        <v>1.057500965693717</v>
+        <v>1.033064430056734</v>
       </c>
       <c r="L8">
-        <v>1.053876159509865</v>
+        <v>1.029083478643766</v>
       </c>
       <c r="M8">
-        <v>1.06291605732261</v>
+        <v>1.036260482379237</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014267840436258</v>
+        <v>0.9923532273602608</v>
       </c>
       <c r="D9">
-        <v>1.032358069270202</v>
+        <v>1.01350670166043</v>
       </c>
       <c r="E9">
-        <v>1.027489313161484</v>
+        <v>1.008408813932943</v>
       </c>
       <c r="F9">
-        <v>1.036062344323881</v>
+        <v>1.014580285857431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048219008044251</v>
+        <v>1.045033351003842</v>
       </c>
       <c r="J9">
-        <v>1.039326633045539</v>
+        <v>1.018178932979914</v>
       </c>
       <c r="K9">
-        <v>1.044947101739828</v>
+        <v>1.026384378066919</v>
       </c>
       <c r="L9">
-        <v>1.040151601363729</v>
+        <v>1.021366921441911</v>
       </c>
       <c r="M9">
-        <v>1.048596228122503</v>
+        <v>1.0274411557183</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001021682540477</v>
+        <v>0.984229773597733</v>
       </c>
       <c r="D10">
-        <v>1.021928682728273</v>
+        <v>1.00742399697946</v>
       </c>
       <c r="E10">
-        <v>1.016215784006851</v>
+        <v>1.001609166194647</v>
       </c>
       <c r="F10">
-        <v>1.024377812621054</v>
+        <v>1.007008142467174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043988092114835</v>
+        <v>1.042446915911159</v>
       </c>
       <c r="J10">
-        <v>1.029194823228999</v>
+        <v>1.013083362551624</v>
       </c>
       <c r="K10">
-        <v>1.035912982691192</v>
+        <v>1.02166049025075</v>
       </c>
       <c r="L10">
-        <v>1.03029830238041</v>
+        <v>1.015949427304125</v>
       </c>
       <c r="M10">
-        <v>1.038320439239005</v>
+        <v>1.02125200519926</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9950236154734536</v>
+        <v>0.9806039002162019</v>
       </c>
       <c r="D11">
-        <v>1.017213819158948</v>
+        <v>1.00471150954851</v>
       </c>
       <c r="E11">
-        <v>1.011122414998896</v>
+        <v>0.9985837555032033</v>
       </c>
       <c r="F11">
-        <v>1.019099190229851</v>
+        <v>1.003637686132645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0420589435345</v>
+        <v>1.041275985662488</v>
       </c>
       <c r="J11">
-        <v>1.024604893327712</v>
+        <v>1.010806449284249</v>
       </c>
       <c r="K11">
-        <v>1.031818248945459</v>
+        <v>1.019545117329226</v>
       </c>
       <c r="L11">
-        <v>1.02583758345309</v>
+        <v>1.013532429633936</v>
       </c>
       <c r="M11">
-        <v>1.03366969346972</v>
+        <v>1.01849132553872</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9927524270007582</v>
+        <v>0.9792398190815234</v>
       </c>
       <c r="D12">
-        <v>1.015429886427855</v>
+        <v>1.003691526303913</v>
       </c>
       <c r="E12">
-        <v>1.009195697592141</v>
+        <v>0.9974470891419497</v>
       </c>
       <c r="F12">
-        <v>1.017102462273857</v>
+        <v>1.002371169887971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041326575674586</v>
+        <v>1.040833071372677</v>
       </c>
       <c r="J12">
-        <v>1.022866716223334</v>
+        <v>1.009949536166359</v>
       </c>
       <c r="K12">
-        <v>1.03026732661078</v>
+        <v>1.018748342592361</v>
       </c>
       <c r="L12">
-        <v>1.024148817928594</v>
+        <v>1.012623362876947</v>
       </c>
       <c r="M12">
-        <v>1.031909180731701</v>
+        <v>1.017453082585152</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9932416281838834</v>
+        <v>0.9795332173792966</v>
       </c>
       <c r="D13">
-        <v>1.015814070264945</v>
+        <v>1.00391088996015</v>
       </c>
       <c r="E13">
-        <v>1.009610612578709</v>
+        <v>0.9976915033569707</v>
       </c>
       <c r="F13">
-        <v>1.017532450852148</v>
+        <v>1.002643515257227</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04148440690207</v>
+        <v>1.040928444423396</v>
       </c>
       <c r="J13">
-        <v>1.02324111586218</v>
+        <v>1.010133861940908</v>
       </c>
       <c r="K13">
-        <v>1.030601403600699</v>
+        <v>1.018919761602361</v>
       </c>
       <c r="L13">
-        <v>1.024512552339235</v>
+        <v>1.012818881491596</v>
       </c>
       <c r="M13">
-        <v>1.032288359494721</v>
+        <v>1.017676379992896</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9948367842838713</v>
+        <v>0.9804915031512295</v>
       </c>
       <c r="D14">
-        <v>1.017067041351659</v>
+        <v>1.004627455094387</v>
       </c>
       <c r="E14">
-        <v>1.010963880762844</v>
+        <v>0.9984900656191597</v>
       </c>
       <c r="F14">
-        <v>1.018934894015281</v>
+        <v>1.00353329778433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041998735527769</v>
+        <v>1.041239538918797</v>
       </c>
       <c r="J14">
-        <v>1.024461911356873</v>
+        <v>1.010735847842902</v>
       </c>
       <c r="K14">
-        <v>1.031690675788348</v>
+        <v>1.019479483915537</v>
       </c>
       <c r="L14">
-        <v>1.025698656183746</v>
+        <v>1.013457519704112</v>
       </c>
       <c r="M14">
-        <v>1.033524859885905</v>
+        <v>1.018405769318416</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9958137601571611</v>
+        <v>0.9810796152426015</v>
       </c>
       <c r="D15">
-        <v>1.017834627262402</v>
+        <v>1.005067285834816</v>
       </c>
       <c r="E15">
-        <v>1.011792964981792</v>
+        <v>0.9989803555458769</v>
       </c>
       <c r="F15">
-        <v>1.01979411430354</v>
+        <v>1.004079565197447</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042313498596032</v>
+        <v>1.041430147319121</v>
       </c>
       <c r="J15">
-        <v>1.025209584620379</v>
+        <v>1.011105253672079</v>
       </c>
       <c r="K15">
-        <v>1.032357763312544</v>
+        <v>1.019822869065308</v>
       </c>
       <c r="L15">
-        <v>1.026425146490103</v>
+        <v>1.013849491814676</v>
       </c>
       <c r="M15">
-        <v>1.034282243939704</v>
+        <v>1.018853452538246</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001413911595623</v>
+        <v>0.9844680450140155</v>
       </c>
       <c r="D16">
-        <v>1.022237176380513</v>
+        <v>1.007602306309223</v>
       </c>
       <c r="E16">
-        <v>1.016549104462556</v>
+        <v>1.001808184510231</v>
       </c>
       <c r="F16">
-        <v>1.024723265596028</v>
+        <v>1.007229829725219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044113977638591</v>
+        <v>1.042523525824445</v>
       </c>
       <c r="J16">
-        <v>1.029494937875409</v>
+        <v>1.01323294041429</v>
       </c>
       <c r="K16">
-        <v>1.036180678907135</v>
+        <v>1.021799363603853</v>
       </c>
       <c r="L16">
-        <v>1.030590033297612</v>
+        <v>1.016108286196563</v>
       </c>
       <c r="M16">
-        <v>1.038624624213285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.021433465013485</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004853946264859</v>
+        <v>0.9865638302787978</v>
       </c>
       <c r="D17">
-        <v>1.024943705621582</v>
+        <v>1.009170973940396</v>
       </c>
       <c r="E17">
-        <v>1.019473795277523</v>
+        <v>1.003559806365039</v>
       </c>
       <c r="F17">
-        <v>1.0277544616307</v>
+        <v>1.009180814446085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045216562770521</v>
+        <v>1.043195505294053</v>
       </c>
       <c r="J17">
-        <v>1.032126863965551</v>
+        <v>1.014548315628511</v>
       </c>
       <c r="K17">
-        <v>1.038528073554211</v>
+        <v>1.023020091089482</v>
       </c>
       <c r="L17">
-        <v>1.033148781610843</v>
+        <v>1.017505705852828</v>
       </c>
       <c r="M17">
-        <v>1.041292746798544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.023029763086138</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006835426010132</v>
+        <v>0.987775881587122</v>
       </c>
       <c r="D18">
-        <v>1.026503393153157</v>
+        <v>1.01007840896951</v>
       </c>
       <c r="E18">
-        <v>1.021159497593457</v>
+        <v>1.004573721469868</v>
       </c>
       <c r="F18">
-        <v>1.029501591311319</v>
+        <v>1.010310003739177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045850398931437</v>
+        <v>1.04358256282058</v>
       </c>
       <c r="J18">
-        <v>1.033642663316925</v>
+        <v>1.015308790790421</v>
       </c>
       <c r="K18">
-        <v>1.039879805106272</v>
+        <v>1.02372541443005</v>
       </c>
       <c r="L18">
-        <v>1.034622719586132</v>
+        <v>1.018313970799971</v>
       </c>
       <c r="M18">
-        <v>1.042829804492912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.023953114938483</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007506921090283</v>
+        <v>0.9881874271364499</v>
       </c>
       <c r="D19">
-        <v>1.027032063815723</v>
+        <v>1.010386559952869</v>
       </c>
       <c r="E19">
-        <v>1.021730933307976</v>
+        <v>1.004918141943322</v>
       </c>
       <c r="F19">
-        <v>1.030093857190626</v>
+        <v>1.010693561182908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046064980183677</v>
+        <v>1.043713718144557</v>
       </c>
       <c r="J19">
-        <v>1.034156307596635</v>
+        <v>1.015566963140972</v>
       </c>
       <c r="K19">
-        <v>1.040337818576953</v>
+        <v>1.023964789385611</v>
       </c>
       <c r="L19">
-        <v>1.035122226185607</v>
+        <v>1.018588427634221</v>
       </c>
       <c r="M19">
-        <v>1.043350721335466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.024266660559009</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0044874785117</v>
+        <v>0.9863400534091791</v>
       </c>
       <c r="D20">
-        <v>1.02465530309309</v>
+        <v>1.009003455288244</v>
       </c>
       <c r="E20">
-        <v>1.019162115467987</v>
+        <v>1.003372683197423</v>
       </c>
       <c r="F20">
-        <v>1.02743142745289</v>
+        <v>1.008972406776561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045099234219288</v>
+        <v>1.043123916973285</v>
       </c>
       <c r="J20">
-        <v>1.031846504683412</v>
+        <v>1.014407891647801</v>
       </c>
       <c r="K20">
-        <v>1.038278043601864</v>
+        <v>1.022889815953032</v>
       </c>
       <c r="L20">
-        <v>1.032876187757246</v>
+        <v>1.017356486155743</v>
       </c>
       <c r="M20">
-        <v>1.041008488759152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.022859300890822</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943682774013256</v>
+        <v>0.9802097969603114</v>
       </c>
       <c r="D21">
-        <v>1.016698996966668</v>
+        <v>1.004416793355437</v>
       </c>
       <c r="E21">
-        <v>1.010566363952245</v>
+        <v>0.998255270822181</v>
       </c>
       <c r="F21">
-        <v>1.01852293040932</v>
+        <v>1.00327168823351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041847725062576</v>
+        <v>1.041148152273603</v>
       </c>
       <c r="J21">
-        <v>1.024103360384026</v>
+        <v>1.010558891075124</v>
       </c>
       <c r="K21">
-        <v>1.031370760724242</v>
+        <v>1.019314968611376</v>
       </c>
       <c r="L21">
-        <v>1.025350280852165</v>
+        <v>1.013269773195489</v>
       </c>
       <c r="M21">
-        <v>1.033161676977039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.01819134145137</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.987753483225427</v>
+        <v>0.9762549924944551</v>
       </c>
       <c r="D22">
-        <v>1.011506175215446</v>
+        <v>1.001460628689748</v>
       </c>
       <c r="E22">
-        <v>1.00495867776124</v>
+        <v>0.9949627593786251</v>
       </c>
       <c r="F22">
-        <v>1.012711608446859</v>
+        <v>0.9996026276023338</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039711264941164</v>
+        <v>1.039859572680923</v>
       </c>
       <c r="J22">
-        <v>1.019040760255723</v>
+        <v>1.008073950363901</v>
       </c>
       <c r="K22">
-        <v>1.026853087469812</v>
+        <v>1.01700320566697</v>
       </c>
       <c r="L22">
-        <v>1.020432538174111</v>
+        <v>1.010634669839235</v>
       </c>
       <c r="M22">
-        <v>1.028035382994242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.015181960629797</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9912854533788328</v>
+        <v>0.9783613836712667</v>
       </c>
       <c r="D23">
-        <v>1.014278047064182</v>
+        <v>1.003034828373603</v>
       </c>
       <c r="E23">
-        <v>1.007951781233108</v>
+        <v>0.9967155405093872</v>
       </c>
       <c r="F23">
-        <v>1.015813365182945</v>
+        <v>1.001555988942878</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040853017644241</v>
+        <v>1.040547178216906</v>
       </c>
       <c r="J23">
-        <v>1.021743983152669</v>
+        <v>1.009397621833239</v>
       </c>
       <c r="K23">
-        <v>1.02926547462705</v>
+        <v>1.01823497982341</v>
       </c>
       <c r="L23">
-        <v>1.023058139642892</v>
+        <v>1.012038017790214</v>
       </c>
       <c r="M23">
-        <v>1.030772220827213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.01678458586527</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004653146595619</v>
+        <v>0.9864412005636519</v>
       </c>
       <c r="D24">
-        <v>1.024785678248358</v>
+        <v>1.009079173018269</v>
       </c>
       <c r="E24">
-        <v>1.019303012423904</v>
+        <v>1.00345726008176</v>
       </c>
       <c r="F24">
-        <v>1.027577457100132</v>
+        <v>1.009066604327477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045152278539601</v>
+        <v>1.043156279762901</v>
       </c>
       <c r="J24">
-        <v>1.031973246591187</v>
+        <v>1.014471364051499</v>
       </c>
       <c r="K24">
-        <v>1.038391075160545</v>
+        <v>1.022948702365434</v>
       </c>
       <c r="L24">
-        <v>1.032999418271069</v>
+        <v>1.017423933165869</v>
       </c>
       <c r="M24">
-        <v>1.041136991899613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.022936349294689</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019193204072837</v>
+        <v>0.9954129001352503</v>
       </c>
       <c r="D25">
-        <v>1.036241444231403</v>
+        <v>1.015799292006402</v>
       </c>
       <c r="E25">
-        <v>1.031689877350174</v>
+        <v>1.010977688825871</v>
       </c>
       <c r="F25">
-        <v>1.040416414576129</v>
+        <v>1.017439934384311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049780241418868</v>
+        <v>1.045992843731655</v>
       </c>
       <c r="J25">
-        <v>1.043091466025897</v>
+        <v>1.020095630803012</v>
       </c>
       <c r="K25">
-        <v>1.048302052183622</v>
+        <v>1.028157197037747</v>
       </c>
       <c r="L25">
-        <v>1.043815389258616</v>
+        <v>1.023407947394463</v>
       </c>
       <c r="M25">
-        <v>1.052418119478822</v>
+        <v>1.029773418544563</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002275090378008</v>
+        <v>1.033294655339615</v>
       </c>
       <c r="D2">
-        <v>1.020942977978244</v>
+        <v>1.036824891749647</v>
       </c>
       <c r="E2">
-        <v>1.01675500767707</v>
+        <v>1.041934602809719</v>
       </c>
       <c r="F2">
-        <v>1.023869064997379</v>
+        <v>1.051219653389859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048111622794175</v>
+        <v>1.035685900914938</v>
       </c>
       <c r="J2">
-        <v>1.024387966168012</v>
+        <v>1.038420169120667</v>
       </c>
       <c r="K2">
-        <v>1.032118055031175</v>
+        <v>1.0396175275634</v>
       </c>
       <c r="L2">
-        <v>1.027985751208624</v>
+        <v>1.044712713289482</v>
       </c>
       <c r="M2">
-        <v>1.0350055872786</v>
+        <v>1.053971761247083</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007101859648872</v>
+        <v>1.034304253336271</v>
       </c>
       <c r="D3">
-        <v>1.024561637948739</v>
+        <v>1.037583992375746</v>
       </c>
       <c r="E3">
-        <v>1.020832153879585</v>
+        <v>1.04283920727192</v>
       </c>
       <c r="F3">
-        <v>1.028404440751889</v>
+        <v>1.052228572741494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049571400710282</v>
+        <v>1.035899657571543</v>
       </c>
       <c r="J3">
-        <v>1.027400775461267</v>
+        <v>1.039072115948</v>
       </c>
       <c r="K3">
-        <v>1.034889604966478</v>
+        <v>1.040186443568828</v>
       </c>
       <c r="L3">
-        <v>1.031205245389842</v>
+        <v>1.045427800484763</v>
       </c>
       <c r="M3">
-        <v>1.038686336741314</v>
+        <v>1.054792778118291</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010157380420487</v>
+        <v>1.03495767743722</v>
       </c>
       <c r="D4">
-        <v>1.026852238634769</v>
+        <v>1.038074878476643</v>
       </c>
       <c r="E4">
-        <v>1.023419035478969</v>
+        <v>1.043425045519667</v>
       </c>
       <c r="F4">
-        <v>1.031281307377241</v>
+        <v>1.05288193218208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050480990208143</v>
+        <v>1.036036196961773</v>
       </c>
       <c r="J4">
-        <v>1.029304780451824</v>
+        <v>1.039493533436225</v>
       </c>
       <c r="K4">
-        <v>1.036637032620985</v>
+        <v>1.040553607319118</v>
       </c>
       <c r="L4">
-        <v>1.033242796689729</v>
+        <v>1.045890376928189</v>
       </c>
       <c r="M4">
-        <v>1.041016302787554</v>
+        <v>1.055323940730805</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011426315573682</v>
+        <v>1.035232411664514</v>
       </c>
       <c r="D5">
-        <v>1.027803409795432</v>
+        <v>1.038281173467867</v>
       </c>
       <c r="E5">
-        <v>1.024494717930944</v>
+        <v>1.043671450427632</v>
       </c>
       <c r="F5">
-        <v>1.032477399955519</v>
+        <v>1.053156728420251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050855201260821</v>
+        <v>1.036093172543156</v>
       </c>
       <c r="J5">
-        <v>1.030094689768333</v>
+        <v>1.03967059240783</v>
       </c>
       <c r="K5">
-        <v>1.037360977310263</v>
+        <v>1.040707731653061</v>
       </c>
       <c r="L5">
-        <v>1.034088814202798</v>
+        <v>1.046084811579947</v>
       </c>
       <c r="M5">
-        <v>1.041983855135099</v>
+        <v>1.05554721913392</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011638477278667</v>
+        <v>1.035278542775973</v>
       </c>
       <c r="D6">
-        <v>1.027962434821174</v>
+        <v>1.038315806962615</v>
       </c>
       <c r="E6">
-        <v>1.024674647660162</v>
+        <v>1.043712829819853</v>
       </c>
       <c r="F6">
-        <v>1.032677460862052</v>
+        <v>1.053202875160731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05091755870993</v>
+        <v>1.036102714022394</v>
       </c>
       <c r="J6">
-        <v>1.030226711236379</v>
+        <v>1.039700315216076</v>
       </c>
       <c r="K6">
-        <v>1.037481914061534</v>
+        <v>1.040733596220351</v>
       </c>
       <c r="L6">
-        <v>1.034230254776448</v>
+        <v>1.046117456088337</v>
       </c>
       <c r="M6">
-        <v>1.042145621513424</v>
+        <v>1.055584707226854</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0101743965343</v>
+        <v>1.034961348313403</v>
       </c>
       <c r="D7">
-        <v>1.026864994081784</v>
+        <v>1.03807763529064</v>
       </c>
       <c r="E7">
-        <v>1.02343345476756</v>
+        <v>1.043428337529552</v>
       </c>
       <c r="F7">
-        <v>1.031297341405315</v>
+        <v>1.052885603536961</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050486022326931</v>
+        <v>1.036036959945184</v>
       </c>
       <c r="J7">
-        <v>1.029315376195549</v>
+        <v>1.039495899720013</v>
       </c>
       <c r="K7">
-        <v>1.03664674752605</v>
+        <v>1.040555667645873</v>
       </c>
       <c r="L7">
-        <v>1.03325414227529</v>
+        <v>1.045892975102045</v>
       </c>
       <c r="M7">
-        <v>1.041029277747638</v>
+        <v>1.055326924276577</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003920717904486</v>
+        <v>1.033635823107661</v>
       </c>
       <c r="D8">
-        <v>1.0221767056223</v>
+        <v>1.037081495424321</v>
       </c>
       <c r="E8">
-        <v>1.018143793497341</v>
+        <v>1.042240214345179</v>
       </c>
       <c r="F8">
-        <v>1.025414099676062</v>
+        <v>1.051560513997913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048612326222588</v>
+        <v>1.035758508281486</v>
       </c>
       <c r="J8">
-        <v>1.025415796575602</v>
+        <v>1.038640587439674</v>
       </c>
       <c r="K8">
-        <v>1.033064430056734</v>
+        <v>1.039809994311427</v>
       </c>
       <c r="L8">
-        <v>1.029083478643766</v>
+        <v>1.044954407432876</v>
       </c>
       <c r="M8">
-        <v>1.036260482379237</v>
+        <v>1.054249245961323</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923532273602608</v>
+        <v>1.031301218172145</v>
       </c>
       <c r="D9">
-        <v>1.01350670166043</v>
+        <v>1.035323896465381</v>
       </c>
       <c r="E9">
-        <v>1.008408813932943</v>
+        <v>1.040150446937716</v>
       </c>
       <c r="F9">
-        <v>1.014580285857431</v>
+        <v>1.049229564847008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045033351003842</v>
+        <v>1.035254266023179</v>
       </c>
       <c r="J9">
-        <v>1.018178932979914</v>
+        <v>1.037130108468288</v>
       </c>
       <c r="K9">
-        <v>1.026384378066919</v>
+        <v>1.038488681358278</v>
       </c>
       <c r="L9">
-        <v>1.021366921441911</v>
+        <v>1.043299544603147</v>
       </c>
       <c r="M9">
-        <v>1.0274411557183</v>
+        <v>1.052349581557568</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.984229773597733</v>
+        <v>1.029745600612785</v>
       </c>
       <c r="D10">
-        <v>1.00742399697946</v>
+        <v>1.034150695081352</v>
       </c>
       <c r="E10">
-        <v>1.001609166194647</v>
+        <v>1.038759911861914</v>
       </c>
       <c r="F10">
-        <v>1.007008142467174</v>
+        <v>1.047678353890882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042446915911159</v>
+        <v>1.034909007555213</v>
       </c>
       <c r="J10">
-        <v>1.013083362551624</v>
+        <v>1.03612093275647</v>
       </c>
       <c r="K10">
-        <v>1.02166049025075</v>
+        <v>1.037602914042396</v>
       </c>
       <c r="L10">
-        <v>1.015949427304125</v>
+        <v>1.04219567849138</v>
       </c>
       <c r="M10">
-        <v>1.02125200519926</v>
+        <v>1.051082739500519</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9806039002162019</v>
+        <v>1.029072190603017</v>
       </c>
       <c r="D11">
-        <v>1.00471150954851</v>
+        <v>1.033642349577978</v>
       </c>
       <c r="E11">
-        <v>0.9985837555032033</v>
+        <v>1.038158431636237</v>
       </c>
       <c r="F11">
-        <v>1.003637686132645</v>
+        <v>1.047007325114527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041275985662488</v>
+        <v>1.034757355115199</v>
       </c>
       <c r="J11">
-        <v>1.010806449284249</v>
+        <v>1.03568343605213</v>
       </c>
       <c r="K11">
-        <v>1.019545117329226</v>
+        <v>1.037218215397651</v>
       </c>
       <c r="L11">
-        <v>1.013532429633936</v>
+        <v>1.041717551926516</v>
       </c>
       <c r="M11">
-        <v>1.01849132553872</v>
+        <v>1.050534096663096</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9792398190815234</v>
+        <v>1.028822083737021</v>
       </c>
       <c r="D12">
-        <v>1.003691526303913</v>
+        <v>1.033453477009692</v>
       </c>
       <c r="E12">
-        <v>0.9974470891419497</v>
+        <v>1.037935110577587</v>
       </c>
       <c r="F12">
-        <v>1.002371169887971</v>
+        <v>1.046758174340672</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040833071372677</v>
+        <v>1.034700701567712</v>
       </c>
       <c r="J12">
-        <v>1.009949536166359</v>
+        <v>1.03552085311438</v>
       </c>
       <c r="K12">
-        <v>1.018748342592361</v>
+        <v>1.037075148213442</v>
       </c>
       <c r="L12">
-        <v>1.012623362876947</v>
+        <v>1.041539933163563</v>
       </c>
       <c r="M12">
-        <v>1.017453082585152</v>
+        <v>1.050330293086309</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9795332173792966</v>
+        <v>1.028875731257592</v>
       </c>
       <c r="D13">
-        <v>1.00391088996015</v>
+        <v>1.033493993083672</v>
       </c>
       <c r="E13">
-        <v>0.9976915033569707</v>
+        <v>1.037983009370448</v>
       </c>
       <c r="F13">
-        <v>1.002643515257227</v>
+        <v>1.046811613528178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040928444423396</v>
+        <v>1.034712868559229</v>
       </c>
       <c r="J13">
-        <v>1.010133861940908</v>
+        <v>1.035555731191321</v>
       </c>
       <c r="K13">
-        <v>1.018919761602361</v>
+        <v>1.037105844427703</v>
       </c>
       <c r="L13">
-        <v>1.012818881491596</v>
+        <v>1.041578033944711</v>
       </c>
       <c r="M13">
-        <v>1.017676379992896</v>
+        <v>1.050374010232967</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9804915031512295</v>
+        <v>1.029051516127633</v>
       </c>
       <c r="D14">
-        <v>1.004627455094387</v>
+        <v>1.033626738335806</v>
       </c>
       <c r="E14">
-        <v>0.9984900656191597</v>
+        <v>1.038139969895917</v>
       </c>
       <c r="F14">
-        <v>1.00353329778433</v>
+        <v>1.046986728206532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041239538918797</v>
+        <v>1.034752678703574</v>
       </c>
       <c r="J14">
-        <v>1.010735847842902</v>
+        <v>1.035669998467472</v>
       </c>
       <c r="K14">
-        <v>1.019479483915537</v>
+        <v>1.037206392944664</v>
       </c>
       <c r="L14">
-        <v>1.013457519704112</v>
+        <v>1.041702870334827</v>
       </c>
       <c r="M14">
-        <v>1.018405769318416</v>
+        <v>1.05051725046163</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9810796152426015</v>
+        <v>1.029159826648912</v>
       </c>
       <c r="D15">
-        <v>1.005067285834816</v>
+        <v>1.033708520413284</v>
       </c>
       <c r="E15">
-        <v>0.9989803555458769</v>
+        <v>1.038236691129626</v>
       </c>
       <c r="F15">
-        <v>1.004079565197447</v>
+        <v>1.047094635303011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041430147319121</v>
+        <v>1.034777164248876</v>
       </c>
       <c r="J15">
-        <v>1.011105253672079</v>
+        <v>1.035740392094691</v>
       </c>
       <c r="K15">
-        <v>1.019822869065308</v>
+        <v>1.037268321301869</v>
       </c>
       <c r="L15">
-        <v>1.013849491814676</v>
+        <v>1.041779783353209</v>
       </c>
       <c r="M15">
-        <v>1.018853452538246</v>
+        <v>1.05060550376309</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844680450140155</v>
+        <v>1.02979029647876</v>
       </c>
       <c r="D16">
-        <v>1.007602306309223</v>
+        <v>1.034184425178989</v>
       </c>
       <c r="E16">
-        <v>1.001808184510231</v>
+        <v>1.03879984347292</v>
       </c>
       <c r="F16">
-        <v>1.007229829725219</v>
+        <v>1.047722901734567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042523525824445</v>
+        <v>1.034919026897878</v>
       </c>
       <c r="J16">
-        <v>1.01323294041429</v>
+        <v>1.036149957121585</v>
       </c>
       <c r="K16">
-        <v>1.021799363603853</v>
+        <v>1.037628420932184</v>
       </c>
       <c r="L16">
-        <v>1.016108286196563</v>
+        <v>1.042227407163878</v>
       </c>
       <c r="M16">
-        <v>1.021433465013485</v>
+        <v>1.051119149234756</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9865638302787978</v>
+        <v>1.030185822557229</v>
       </c>
       <c r="D17">
-        <v>1.009170973940396</v>
+        <v>1.034482856857909</v>
       </c>
       <c r="E17">
-        <v>1.003559806365039</v>
+        <v>1.039153263417019</v>
       </c>
       <c r="F17">
-        <v>1.009180814446085</v>
+        <v>1.048117172715619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043195505294053</v>
+        <v>1.035007437403656</v>
       </c>
       <c r="J17">
-        <v>1.014548315628511</v>
+        <v>1.036406728380756</v>
       </c>
       <c r="K17">
-        <v>1.023020091089482</v>
+        <v>1.037853992988704</v>
       </c>
       <c r="L17">
-        <v>1.017505705852828</v>
+        <v>1.042508151258059</v>
       </c>
       <c r="M17">
-        <v>1.023029763086138</v>
+        <v>1.051441321300345</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.987775881587122</v>
+        <v>1.030416543840744</v>
       </c>
       <c r="D18">
-        <v>1.01007840896951</v>
+        <v>1.034656893991253</v>
       </c>
       <c r="E18">
-        <v>1.004573721469868</v>
+        <v>1.039359468089573</v>
       </c>
       <c r="F18">
-        <v>1.010310003739177</v>
+        <v>1.048347207539535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04358256282058</v>
+        <v>1.035058797970868</v>
       </c>
       <c r="J18">
-        <v>1.015308790790421</v>
+        <v>1.036556448800317</v>
       </c>
       <c r="K18">
-        <v>1.02372541443005</v>
+        <v>1.037985453816939</v>
       </c>
       <c r="L18">
-        <v>1.018313970799971</v>
+        <v>1.042671890486432</v>
       </c>
       <c r="M18">
-        <v>1.023953114938483</v>
+        <v>1.051629229911371</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9881874271364499</v>
+        <v>1.03049521681899</v>
       </c>
       <c r="D19">
-        <v>1.010386559952869</v>
+        <v>1.034716230528607</v>
       </c>
       <c r="E19">
-        <v>1.004918141943322</v>
+        <v>1.039429788844286</v>
       </c>
       <c r="F19">
-        <v>1.010693561182908</v>
+        <v>1.048425654174722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043713718144557</v>
+        <v>1.035076275340185</v>
       </c>
       <c r="J19">
-        <v>1.015566963140972</v>
+        <v>1.036607491113567</v>
       </c>
       <c r="K19">
-        <v>1.023964789385611</v>
+        <v>1.038030259624452</v>
       </c>
       <c r="L19">
-        <v>1.018588427634221</v>
+        <v>1.042727718931538</v>
       </c>
       <c r="M19">
-        <v>1.024266660559009</v>
+        <v>1.051693300363048</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9863400534091791</v>
+        <v>1.030143384529145</v>
       </c>
       <c r="D20">
-        <v>1.009003455288244</v>
+        <v>1.03445084137149</v>
       </c>
       <c r="E20">
-        <v>1.003372683197423</v>
+        <v>1.039115338507707</v>
       </c>
       <c r="F20">
-        <v>1.008972406776561</v>
+        <v>1.048074864625507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043123916973285</v>
+        <v>1.03499797328218</v>
       </c>
       <c r="J20">
-        <v>1.014407891647801</v>
+        <v>1.036379184413724</v>
       </c>
       <c r="K20">
-        <v>1.022889815953032</v>
+        <v>1.037829802773895</v>
       </c>
       <c r="L20">
-        <v>1.017356486155743</v>
+        <v>1.04247803152307</v>
       </c>
       <c r="M20">
-        <v>1.022859300890822</v>
+        <v>1.051406756203265</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9802097969603114</v>
+        <v>1.028999751101738</v>
       </c>
       <c r="D21">
-        <v>1.004416793355437</v>
+        <v>1.03358764955211</v>
       </c>
       <c r="E21">
-        <v>0.998255270822181</v>
+        <v>1.038093746291779</v>
       </c>
       <c r="F21">
-        <v>1.00327168823351</v>
+        <v>1.046935158554891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041148152273603</v>
+        <v>1.034740964523495</v>
       </c>
       <c r="J21">
-        <v>1.010558891075124</v>
+        <v>1.035636351729405</v>
       </c>
       <c r="K21">
-        <v>1.019314968611376</v>
+        <v>1.037176788682553</v>
       </c>
       <c r="L21">
-        <v>1.013269773195489</v>
+        <v>1.041666109712067</v>
       </c>
       <c r="M21">
-        <v>1.01819134145137</v>
+        <v>1.050475070143973</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9762549924944551</v>
+        <v>1.02828086310856</v>
       </c>
       <c r="D22">
-        <v>1.001460628689748</v>
+        <v>1.033044635356048</v>
       </c>
       <c r="E22">
-        <v>0.9949627593786251</v>
+        <v>1.037451983485711</v>
       </c>
       <c r="F22">
-        <v>0.9996026276023338</v>
+        <v>1.046219154330536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039859572680923</v>
+        <v>1.034577503887695</v>
       </c>
       <c r="J22">
-        <v>1.008073950363901</v>
+        <v>1.03516885702379</v>
       </c>
       <c r="K22">
-        <v>1.01700320566697</v>
+        <v>1.036765212311534</v>
       </c>
       <c r="L22">
-        <v>1.010634669839235</v>
+        <v>1.041155499466112</v>
       </c>
       <c r="M22">
-        <v>1.015181960629797</v>
+        <v>1.049889206073509</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9783613836712667</v>
+        <v>1.028661944043647</v>
       </c>
       <c r="D23">
-        <v>1.003034828373603</v>
+        <v>1.033332524762199</v>
       </c>
       <c r="E23">
-        <v>0.9967155405093872</v>
+        <v>1.037792141452256</v>
       </c>
       <c r="F23">
-        <v>1.001555988942878</v>
+        <v>1.046598667066877</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040547178216906</v>
+        <v>1.034664334485835</v>
       </c>
       <c r="J23">
-        <v>1.009397621833239</v>
+        <v>1.035416726956573</v>
       </c>
       <c r="K23">
-        <v>1.01823497982341</v>
+        <v>1.036983491359284</v>
       </c>
       <c r="L23">
-        <v>1.012038017790214</v>
+        <v>1.04142619507201</v>
       </c>
       <c r="M23">
-        <v>1.01678458586527</v>
+        <v>1.050199790711672</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9864412005636519</v>
+        <v>1.030162560392776</v>
       </c>
       <c r="D24">
-        <v>1.009079173018269</v>
+        <v>1.034465307893755</v>
       </c>
       <c r="E24">
-        <v>1.00345726008176</v>
+        <v>1.039132474953913</v>
       </c>
       <c r="F24">
-        <v>1.009066604327477</v>
+        <v>1.048093981634902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043156279762901</v>
+        <v>1.035002250353314</v>
       </c>
       <c r="J24">
-        <v>1.014471364051499</v>
+        <v>1.036391630501003</v>
       </c>
       <c r="K24">
-        <v>1.022948702365434</v>
+        <v>1.037840733635334</v>
       </c>
       <c r="L24">
-        <v>1.017423933165869</v>
+        <v>1.042491641378226</v>
       </c>
       <c r="M24">
-        <v>1.022936349294689</v>
+        <v>1.051422374710289</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9954129001352503</v>
+        <v>1.031904632432419</v>
       </c>
       <c r="D25">
-        <v>1.015799292006402</v>
+        <v>1.035778541144434</v>
       </c>
       <c r="E25">
-        <v>1.010977688825871</v>
+        <v>1.040690239645908</v>
       </c>
       <c r="F25">
-        <v>1.017439934384311</v>
+        <v>1.049831688891109</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045992843731655</v>
+        <v>1.035386230317398</v>
       </c>
       <c r="J25">
-        <v>1.020095630803012</v>
+        <v>1.03752099201938</v>
       </c>
       <c r="K25">
-        <v>1.028157197037747</v>
+        <v>1.038831137868651</v>
       </c>
       <c r="L25">
-        <v>1.023407947394463</v>
+        <v>1.043727479190696</v>
       </c>
       <c r="M25">
-        <v>1.029773418544563</v>
+        <v>1.052840763820664</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033294655339615</v>
+        <v>1.00227509037801</v>
       </c>
       <c r="D2">
-        <v>1.036824891749647</v>
+        <v>1.020942977978245</v>
       </c>
       <c r="E2">
-        <v>1.041934602809719</v>
+        <v>1.016755007677071</v>
       </c>
       <c r="F2">
-        <v>1.051219653389859</v>
+        <v>1.02386906499738</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035685900914938</v>
+        <v>1.048111622794176</v>
       </c>
       <c r="J2">
-        <v>1.038420169120667</v>
+        <v>1.024387966168013</v>
       </c>
       <c r="K2">
-        <v>1.0396175275634</v>
+        <v>1.032118055031176</v>
       </c>
       <c r="L2">
-        <v>1.044712713289482</v>
+        <v>1.027985751208624</v>
       </c>
       <c r="M2">
-        <v>1.053971761247083</v>
+        <v>1.0350055872786</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034304253336271</v>
+        <v>1.007101859648872</v>
       </c>
       <c r="D3">
-        <v>1.037583992375746</v>
+        <v>1.024561637948738</v>
       </c>
       <c r="E3">
-        <v>1.04283920727192</v>
+        <v>1.020832153879585</v>
       </c>
       <c r="F3">
-        <v>1.052228572741494</v>
+        <v>1.028404440751888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035899657571543</v>
+        <v>1.049571400710282</v>
       </c>
       <c r="J3">
-        <v>1.039072115948</v>
+        <v>1.027400775461267</v>
       </c>
       <c r="K3">
-        <v>1.040186443568828</v>
+        <v>1.034889604966478</v>
       </c>
       <c r="L3">
-        <v>1.045427800484763</v>
+        <v>1.031205245389841</v>
       </c>
       <c r="M3">
-        <v>1.054792778118291</v>
+        <v>1.038686336741313</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03495767743722</v>
+        <v>1.010157380420487</v>
       </c>
       <c r="D4">
-        <v>1.038074878476643</v>
+        <v>1.026852238634769</v>
       </c>
       <c r="E4">
-        <v>1.043425045519667</v>
+        <v>1.023419035478969</v>
       </c>
       <c r="F4">
-        <v>1.05288193218208</v>
+        <v>1.031281307377241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036036196961773</v>
+        <v>1.050480990208143</v>
       </c>
       <c r="J4">
-        <v>1.039493533436225</v>
+        <v>1.029304780451824</v>
       </c>
       <c r="K4">
-        <v>1.040553607319118</v>
+        <v>1.036637032620985</v>
       </c>
       <c r="L4">
-        <v>1.045890376928189</v>
+        <v>1.033242796689729</v>
       </c>
       <c r="M4">
-        <v>1.055323940730805</v>
+        <v>1.041016302787554</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035232411664514</v>
+        <v>1.011426315573681</v>
       </c>
       <c r="D5">
-        <v>1.038281173467867</v>
+        <v>1.027803409795431</v>
       </c>
       <c r="E5">
-        <v>1.043671450427632</v>
+        <v>1.024494717930943</v>
       </c>
       <c r="F5">
-        <v>1.053156728420251</v>
+        <v>1.032477399955519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036093172543156</v>
+        <v>1.050855201260821</v>
       </c>
       <c r="J5">
-        <v>1.03967059240783</v>
+        <v>1.030094689768333</v>
       </c>
       <c r="K5">
-        <v>1.040707731653061</v>
+        <v>1.037360977310263</v>
       </c>
       <c r="L5">
-        <v>1.046084811579947</v>
+        <v>1.034088814202797</v>
       </c>
       <c r="M5">
-        <v>1.05554721913392</v>
+        <v>1.041983855135098</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035278542775973</v>
+        <v>1.011638477278668</v>
       </c>
       <c r="D6">
-        <v>1.038315806962615</v>
+        <v>1.027962434821174</v>
       </c>
       <c r="E6">
-        <v>1.043712829819853</v>
+        <v>1.024674647660162</v>
       </c>
       <c r="F6">
-        <v>1.053202875160731</v>
+        <v>1.032677460862053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036102714022394</v>
+        <v>1.05091755870993</v>
       </c>
       <c r="J6">
-        <v>1.039700315216076</v>
+        <v>1.030226711236379</v>
       </c>
       <c r="K6">
-        <v>1.040733596220351</v>
+        <v>1.037481914061535</v>
       </c>
       <c r="L6">
-        <v>1.046117456088337</v>
+        <v>1.034230254776449</v>
       </c>
       <c r="M6">
-        <v>1.055584707226854</v>
+        <v>1.042145621513424</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034961348313403</v>
+        <v>1.0101743965343</v>
       </c>
       <c r="D7">
-        <v>1.03807763529064</v>
+        <v>1.026864994081784</v>
       </c>
       <c r="E7">
-        <v>1.043428337529552</v>
+        <v>1.02343345476756</v>
       </c>
       <c r="F7">
-        <v>1.052885603536961</v>
+        <v>1.031297341405314</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036036959945184</v>
+        <v>1.050486022326931</v>
       </c>
       <c r="J7">
-        <v>1.039495899720013</v>
+        <v>1.029315376195549</v>
       </c>
       <c r="K7">
-        <v>1.040555667645873</v>
+        <v>1.03664674752605</v>
       </c>
       <c r="L7">
-        <v>1.045892975102045</v>
+        <v>1.03325414227529</v>
       </c>
       <c r="M7">
-        <v>1.055326924276577</v>
+        <v>1.041029277747637</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033635823107661</v>
+        <v>1.003920717904485</v>
       </c>
       <c r="D8">
-        <v>1.037081495424321</v>
+        <v>1.022176705622299</v>
       </c>
       <c r="E8">
-        <v>1.042240214345179</v>
+        <v>1.01814379349734</v>
       </c>
       <c r="F8">
-        <v>1.051560513997913</v>
+        <v>1.025414099676061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035758508281486</v>
+        <v>1.048612326222587</v>
       </c>
       <c r="J8">
-        <v>1.038640587439674</v>
+        <v>1.025415796575602</v>
       </c>
       <c r="K8">
-        <v>1.039809994311427</v>
+        <v>1.033064430056734</v>
       </c>
       <c r="L8">
-        <v>1.044954407432876</v>
+        <v>1.029083478643765</v>
       </c>
       <c r="M8">
-        <v>1.054249245961323</v>
+        <v>1.036260482379236</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031301218172145</v>
+        <v>0.9923532273602601</v>
       </c>
       <c r="D9">
-        <v>1.035323896465381</v>
+        <v>1.013506701660429</v>
       </c>
       <c r="E9">
-        <v>1.040150446937716</v>
+        <v>1.008408813932943</v>
       </c>
       <c r="F9">
-        <v>1.049229564847008</v>
+        <v>1.01458028585743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035254266023179</v>
+        <v>1.045033351003841</v>
       </c>
       <c r="J9">
-        <v>1.037130108468288</v>
+        <v>1.018178932979914</v>
       </c>
       <c r="K9">
-        <v>1.038488681358278</v>
+        <v>1.026384378066918</v>
       </c>
       <c r="L9">
-        <v>1.043299544603147</v>
+        <v>1.02136692144191</v>
       </c>
       <c r="M9">
-        <v>1.052349581557568</v>
+        <v>1.027441155718299</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029745600612785</v>
+        <v>0.9842297735977328</v>
       </c>
       <c r="D10">
-        <v>1.034150695081352</v>
+        <v>1.00742399697946</v>
       </c>
       <c r="E10">
-        <v>1.038759911861914</v>
+        <v>1.001609166194647</v>
       </c>
       <c r="F10">
-        <v>1.047678353890882</v>
+        <v>1.007008142467174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034909007555213</v>
+        <v>1.042446915911159</v>
       </c>
       <c r="J10">
-        <v>1.03612093275647</v>
+        <v>1.013083362551624</v>
       </c>
       <c r="K10">
-        <v>1.037602914042396</v>
+        <v>1.02166049025075</v>
       </c>
       <c r="L10">
-        <v>1.04219567849138</v>
+        <v>1.015949427304124</v>
       </c>
       <c r="M10">
-        <v>1.051082739500519</v>
+        <v>1.02125200519926</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029072190603017</v>
+        <v>0.9806039002162017</v>
       </c>
       <c r="D11">
-        <v>1.033642349577978</v>
+        <v>1.00471150954851</v>
       </c>
       <c r="E11">
-        <v>1.038158431636237</v>
+        <v>0.9985837555032033</v>
       </c>
       <c r="F11">
-        <v>1.047007325114527</v>
+        <v>1.003637686132645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034757355115199</v>
+        <v>1.041275985662488</v>
       </c>
       <c r="J11">
-        <v>1.03568343605213</v>
+        <v>1.010806449284249</v>
       </c>
       <c r="K11">
-        <v>1.037218215397651</v>
+        <v>1.019545117329226</v>
       </c>
       <c r="L11">
-        <v>1.041717551926516</v>
+        <v>1.013532429633936</v>
       </c>
       <c r="M11">
-        <v>1.050534096663096</v>
+        <v>1.01849132553872</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028822083737021</v>
+        <v>0.979239819081523</v>
       </c>
       <c r="D12">
-        <v>1.033453477009692</v>
+        <v>1.003691526303912</v>
       </c>
       <c r="E12">
-        <v>1.037935110577587</v>
+        <v>0.9974470891419495</v>
       </c>
       <c r="F12">
-        <v>1.046758174340672</v>
+        <v>1.002371169887971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034700701567712</v>
+        <v>1.040833071372677</v>
       </c>
       <c r="J12">
-        <v>1.03552085311438</v>
+        <v>1.009949536166359</v>
       </c>
       <c r="K12">
-        <v>1.037075148213442</v>
+        <v>1.018748342592361</v>
       </c>
       <c r="L12">
-        <v>1.041539933163563</v>
+        <v>1.012623362876946</v>
       </c>
       <c r="M12">
-        <v>1.050330293086309</v>
+        <v>1.017453082585152</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028875731257592</v>
+        <v>0.9795332173792967</v>
       </c>
       <c r="D13">
-        <v>1.033493993083672</v>
+        <v>1.003910889960151</v>
       </c>
       <c r="E13">
-        <v>1.037983009370448</v>
+        <v>0.9976915033569714</v>
       </c>
       <c r="F13">
-        <v>1.046811613528178</v>
+        <v>1.002643515257228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034712868559229</v>
+        <v>1.040928444423396</v>
       </c>
       <c r="J13">
-        <v>1.035555731191321</v>
+        <v>1.010133861940908</v>
       </c>
       <c r="K13">
-        <v>1.037105844427703</v>
+        <v>1.018919761602362</v>
       </c>
       <c r="L13">
-        <v>1.041578033944711</v>
+        <v>1.012818881491596</v>
       </c>
       <c r="M13">
-        <v>1.050374010232967</v>
+        <v>1.017676379992896</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029051516127633</v>
+        <v>0.9804915031512286</v>
       </c>
       <c r="D14">
-        <v>1.033626738335806</v>
+        <v>1.004627455094387</v>
       </c>
       <c r="E14">
-        <v>1.038139969895917</v>
+        <v>0.9984900656191587</v>
       </c>
       <c r="F14">
-        <v>1.046986728206532</v>
+        <v>1.003533297784329</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034752678703574</v>
+        <v>1.041239538918796</v>
       </c>
       <c r="J14">
-        <v>1.035669998467472</v>
+        <v>1.010735847842902</v>
       </c>
       <c r="K14">
-        <v>1.037206392944664</v>
+        <v>1.019479483915536</v>
       </c>
       <c r="L14">
-        <v>1.041702870334827</v>
+        <v>1.013457519704111</v>
       </c>
       <c r="M14">
-        <v>1.05051725046163</v>
+        <v>1.018405769318415</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029159826648912</v>
+        <v>0.9810796152426023</v>
       </c>
       <c r="D15">
-        <v>1.033708520413284</v>
+        <v>1.005067285834817</v>
       </c>
       <c r="E15">
-        <v>1.038236691129626</v>
+        <v>0.9989803555458781</v>
       </c>
       <c r="F15">
-        <v>1.047094635303011</v>
+        <v>1.004079565197449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034777164248876</v>
+        <v>1.041430147319121</v>
       </c>
       <c r="J15">
-        <v>1.035740392094691</v>
+        <v>1.01110525367208</v>
       </c>
       <c r="K15">
-        <v>1.037268321301869</v>
+        <v>1.019822869065309</v>
       </c>
       <c r="L15">
-        <v>1.041779783353209</v>
+        <v>1.013849491814677</v>
       </c>
       <c r="M15">
-        <v>1.05060550376309</v>
+        <v>1.018853452538247</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02979029647876</v>
+        <v>0.9844680450140143</v>
       </c>
       <c r="D16">
-        <v>1.034184425178989</v>
+        <v>1.007602306309222</v>
       </c>
       <c r="E16">
-        <v>1.03879984347292</v>
+        <v>1.00180818451023</v>
       </c>
       <c r="F16">
-        <v>1.047722901734567</v>
+        <v>1.007229829725218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034919026897878</v>
+        <v>1.042523525824444</v>
       </c>
       <c r="J16">
-        <v>1.036149957121585</v>
+        <v>1.013232940414289</v>
       </c>
       <c r="K16">
-        <v>1.037628420932184</v>
+        <v>1.021799363603852</v>
       </c>
       <c r="L16">
-        <v>1.042227407163878</v>
+        <v>1.016108286196562</v>
       </c>
       <c r="M16">
-        <v>1.051119149234756</v>
+        <v>1.021433465013484</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030185822557229</v>
+        <v>0.9865638302787992</v>
       </c>
       <c r="D17">
-        <v>1.034482856857909</v>
+        <v>1.009170973940397</v>
       </c>
       <c r="E17">
-        <v>1.039153263417019</v>
+        <v>1.00355980636504</v>
       </c>
       <c r="F17">
-        <v>1.048117172715619</v>
+        <v>1.009180814446086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035007437403656</v>
+        <v>1.043195505294054</v>
       </c>
       <c r="J17">
-        <v>1.036406728380756</v>
+        <v>1.014548315628512</v>
       </c>
       <c r="K17">
-        <v>1.037853992988704</v>
+        <v>1.023020091089483</v>
       </c>
       <c r="L17">
-        <v>1.042508151258059</v>
+        <v>1.017505705852829</v>
       </c>
       <c r="M17">
-        <v>1.051441321300345</v>
+        <v>1.023029763086138</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030416543840744</v>
+        <v>0.9877758815871227</v>
       </c>
       <c r="D18">
-        <v>1.034656893991253</v>
+        <v>1.010078408969511</v>
       </c>
       <c r="E18">
-        <v>1.039359468089573</v>
+        <v>1.004573721469868</v>
       </c>
       <c r="F18">
-        <v>1.048347207539535</v>
+        <v>1.010310003739178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035058797970868</v>
+        <v>1.043582562820581</v>
       </c>
       <c r="J18">
-        <v>1.036556448800317</v>
+        <v>1.015308790790422</v>
       </c>
       <c r="K18">
-        <v>1.037985453816939</v>
+        <v>1.023725414430051</v>
       </c>
       <c r="L18">
-        <v>1.042671890486432</v>
+        <v>1.018313970799972</v>
       </c>
       <c r="M18">
-        <v>1.051629229911371</v>
+        <v>1.023953114938484</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03049521681899</v>
+        <v>0.9881874271364507</v>
       </c>
       <c r="D19">
-        <v>1.034716230528607</v>
+        <v>1.010386559952869</v>
       </c>
       <c r="E19">
-        <v>1.039429788844286</v>
+        <v>1.004918141943322</v>
       </c>
       <c r="F19">
-        <v>1.048425654174722</v>
+        <v>1.010693561182908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035076275340185</v>
+        <v>1.043713718144557</v>
       </c>
       <c r="J19">
-        <v>1.036607491113567</v>
+        <v>1.015566963140972</v>
       </c>
       <c r="K19">
-        <v>1.038030259624452</v>
+        <v>1.023964789385611</v>
       </c>
       <c r="L19">
-        <v>1.042727718931538</v>
+        <v>1.018588427634221</v>
       </c>
       <c r="M19">
-        <v>1.051693300363048</v>
+        <v>1.02426666055901</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030143384529145</v>
+        <v>0.9863400534091786</v>
       </c>
       <c r="D20">
-        <v>1.03445084137149</v>
+        <v>1.009003455288244</v>
       </c>
       <c r="E20">
-        <v>1.039115338507707</v>
+        <v>1.003372683197423</v>
       </c>
       <c r="F20">
-        <v>1.048074864625507</v>
+        <v>1.00897240677656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03499797328218</v>
+        <v>1.043123916973284</v>
       </c>
       <c r="J20">
-        <v>1.036379184413724</v>
+        <v>1.014407891647801</v>
       </c>
       <c r="K20">
-        <v>1.037829802773895</v>
+        <v>1.022889815953032</v>
       </c>
       <c r="L20">
-        <v>1.04247803152307</v>
+        <v>1.017356486155743</v>
       </c>
       <c r="M20">
-        <v>1.051406756203265</v>
+        <v>1.022859300890821</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028999751101738</v>
+        <v>0.9802097969603119</v>
       </c>
       <c r="D21">
-        <v>1.03358764955211</v>
+        <v>1.004416793355437</v>
       </c>
       <c r="E21">
-        <v>1.038093746291779</v>
+        <v>0.9982552708221814</v>
       </c>
       <c r="F21">
-        <v>1.046935158554891</v>
+        <v>1.00327168823351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034740964523495</v>
+        <v>1.041148152273603</v>
       </c>
       <c r="J21">
-        <v>1.035636351729405</v>
+        <v>1.010558891075125</v>
       </c>
       <c r="K21">
-        <v>1.037176788682553</v>
+        <v>1.019314968611376</v>
       </c>
       <c r="L21">
-        <v>1.041666109712067</v>
+        <v>1.013269773195489</v>
       </c>
       <c r="M21">
-        <v>1.050475070143973</v>
+        <v>1.01819134145137</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02828086310856</v>
+        <v>0.9762549924944547</v>
       </c>
       <c r="D22">
-        <v>1.033044635356048</v>
+        <v>1.001460628689748</v>
       </c>
       <c r="E22">
-        <v>1.037451983485711</v>
+        <v>0.9949627593786248</v>
       </c>
       <c r="F22">
-        <v>1.046219154330536</v>
+        <v>0.9996026276023334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034577503887695</v>
+        <v>1.039859572680923</v>
       </c>
       <c r="J22">
-        <v>1.03516885702379</v>
+        <v>1.008073950363901</v>
       </c>
       <c r="K22">
-        <v>1.036765212311534</v>
+        <v>1.01700320566697</v>
       </c>
       <c r="L22">
-        <v>1.041155499466112</v>
+        <v>1.010634669839235</v>
       </c>
       <c r="M22">
-        <v>1.049889206073509</v>
+        <v>1.015181960629797</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028661944043647</v>
+        <v>0.9783613836712666</v>
       </c>
       <c r="D23">
-        <v>1.033332524762199</v>
+        <v>1.003034828373603</v>
       </c>
       <c r="E23">
-        <v>1.037792141452256</v>
+        <v>0.9967155405093869</v>
       </c>
       <c r="F23">
-        <v>1.046598667066877</v>
+        <v>1.001555988942878</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034664334485835</v>
+        <v>1.040547178216906</v>
       </c>
       <c r="J23">
-        <v>1.035416726956573</v>
+        <v>1.009397621833239</v>
       </c>
       <c r="K23">
-        <v>1.036983491359284</v>
+        <v>1.01823497982341</v>
       </c>
       <c r="L23">
-        <v>1.04142619507201</v>
+        <v>1.012038017790214</v>
       </c>
       <c r="M23">
-        <v>1.050199790711672</v>
+        <v>1.01678458586527</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030162560392776</v>
+        <v>0.9864412005636516</v>
       </c>
       <c r="D24">
-        <v>1.034465307893755</v>
+        <v>1.009079173018269</v>
       </c>
       <c r="E24">
-        <v>1.039132474953913</v>
+        <v>1.00345726008176</v>
       </c>
       <c r="F24">
-        <v>1.048093981634902</v>
+        <v>1.009066604327477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035002250353314</v>
+        <v>1.043156279762901</v>
       </c>
       <c r="J24">
-        <v>1.036391630501003</v>
+        <v>1.014471364051499</v>
       </c>
       <c r="K24">
-        <v>1.037840733635334</v>
+        <v>1.022948702365433</v>
       </c>
       <c r="L24">
-        <v>1.042491641378226</v>
+        <v>1.017423933165869</v>
       </c>
       <c r="M24">
-        <v>1.051422374710289</v>
+        <v>1.022936349294689</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031904632432419</v>
+        <v>0.9954129001352495</v>
       </c>
       <c r="D25">
-        <v>1.035778541144434</v>
+        <v>1.015799292006401</v>
       </c>
       <c r="E25">
-        <v>1.040690239645908</v>
+        <v>1.01097768882587</v>
       </c>
       <c r="F25">
-        <v>1.049831688891109</v>
+        <v>1.01743993438431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035386230317398</v>
+        <v>1.045992843731655</v>
       </c>
       <c r="J25">
-        <v>1.03752099201938</v>
+        <v>1.020095630803012</v>
       </c>
       <c r="K25">
-        <v>1.038831137868651</v>
+        <v>1.028157197037746</v>
       </c>
       <c r="L25">
-        <v>1.043727479190696</v>
+        <v>1.023407947394462</v>
       </c>
       <c r="M25">
-        <v>1.052840763820664</v>
+        <v>1.029773418544562</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00227509037801</v>
+        <v>1.03701616665626</v>
       </c>
       <c r="D2">
-        <v>1.020942977978245</v>
+        <v>1.049381538252569</v>
       </c>
       <c r="E2">
-        <v>1.016755007677071</v>
+        <v>1.046645843090188</v>
       </c>
       <c r="F2">
-        <v>1.02386906499738</v>
+        <v>1.05377815745399</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048111622794176</v>
+        <v>1.058478526763793</v>
       </c>
       <c r="J2">
-        <v>1.024387966168013</v>
+        <v>1.058143415541375</v>
       </c>
       <c r="K2">
-        <v>1.032118055031176</v>
+        <v>1.060193248604392</v>
       </c>
       <c r="L2">
-        <v>1.027985751208624</v>
+        <v>1.057491438602673</v>
       </c>
       <c r="M2">
-        <v>1.0350055872786</v>
+        <v>1.064535868233287</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.059647953473298</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.053631914737211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007101859648872</v>
+        <v>1.041322298481187</v>
       </c>
       <c r="D3">
-        <v>1.024561637948738</v>
+        <v>1.052338185243781</v>
       </c>
       <c r="E3">
-        <v>1.020832153879585</v>
+        <v>1.050043124996597</v>
       </c>
       <c r="F3">
-        <v>1.028404440751888</v>
+        <v>1.05692993013364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049571400710282</v>
+        <v>1.059690172928144</v>
       </c>
       <c r="J3">
-        <v>1.027400775461267</v>
+        <v>1.06074653236941</v>
       </c>
       <c r="K3">
-        <v>1.034889604966478</v>
+        <v>1.062342479170216</v>
       </c>
       <c r="L3">
-        <v>1.031205245389841</v>
+        <v>1.060073362377272</v>
       </c>
       <c r="M3">
-        <v>1.038686336741313</v>
+        <v>1.066882735030714</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.061505291291432</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.055148937872695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010157380420487</v>
+        <v>1.044057735863261</v>
       </c>
       <c r="D4">
-        <v>1.026852238634769</v>
+        <v>1.0542203435262</v>
       </c>
       <c r="E4">
-        <v>1.023419035478969</v>
+        <v>1.052206708448429</v>
       </c>
       <c r="F4">
-        <v>1.031281307377241</v>
+        <v>1.058938757368128</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050480990208143</v>
+        <v>1.060451923566845</v>
       </c>
       <c r="J4">
-        <v>1.029304780451824</v>
+        <v>1.062397850597573</v>
       </c>
       <c r="K4">
-        <v>1.036637032620985</v>
+        <v>1.063705620507059</v>
       </c>
       <c r="L4">
-        <v>1.033242796689729</v>
+        <v>1.061713372405594</v>
       </c>
       <c r="M4">
-        <v>1.041016302787554</v>
+        <v>1.068374309109834</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.062685738145802</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.056113634487789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011426315573681</v>
+        <v>1.045201235800189</v>
       </c>
       <c r="D5">
-        <v>1.027803409795431</v>
+        <v>1.055010231889738</v>
       </c>
       <c r="E5">
-        <v>1.024494717930943</v>
+        <v>1.053113248259138</v>
       </c>
       <c r="F5">
-        <v>1.032477399955519</v>
+        <v>1.05978078039313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050855201260821</v>
+        <v>1.060770537307671</v>
       </c>
       <c r="J5">
-        <v>1.030094689768333</v>
+        <v>1.063089563307803</v>
       </c>
       <c r="K5">
-        <v>1.037360977310263</v>
+        <v>1.064278037239134</v>
       </c>
       <c r="L5">
-        <v>1.034088814202797</v>
+        <v>1.062400664319641</v>
       </c>
       <c r="M5">
-        <v>1.041983855135098</v>
+        <v>1.068999646687586</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.063180636115802</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.056525379521228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011638477278668</v>
+        <v>1.045399031447801</v>
       </c>
       <c r="D6">
-        <v>1.027962434821174</v>
+        <v>1.055149549887087</v>
       </c>
       <c r="E6">
-        <v>1.024674647660162</v>
+        <v>1.053271115609409</v>
       </c>
       <c r="F6">
-        <v>1.032677460862053</v>
+        <v>1.059927368843617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05091755870993</v>
+        <v>1.060828113517845</v>
       </c>
       <c r="J6">
-        <v>1.030226711236379</v>
+        <v>1.063211595196359</v>
       </c>
       <c r="K6">
-        <v>1.037481914061535</v>
+        <v>1.06438081293716</v>
       </c>
       <c r="L6">
-        <v>1.034230254776449</v>
+        <v>1.062521708416823</v>
       </c>
       <c r="M6">
-        <v>1.042145621513424</v>
+        <v>1.069109842499846</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.06326784607315</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.056606601393967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0101743965343</v>
+        <v>1.044090571033388</v>
       </c>
       <c r="D7">
-        <v>1.026864994081784</v>
+        <v>1.054250100751364</v>
       </c>
       <c r="E7">
-        <v>1.02343345476756</v>
+        <v>1.052235409016833</v>
       </c>
       <c r="F7">
-        <v>1.031297341405314</v>
+        <v>1.058965213860593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050486022326931</v>
+        <v>1.060468049819226</v>
       </c>
       <c r="J7">
-        <v>1.029315376195549</v>
+        <v>1.062424234325125</v>
       </c>
       <c r="K7">
-        <v>1.03664674752605</v>
+        <v>1.063732265714502</v>
       </c>
       <c r="L7">
-        <v>1.03325414227529</v>
+        <v>1.061738963634756</v>
       </c>
       <c r="M7">
-        <v>1.041029277747637</v>
+        <v>1.068397708054762</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.0627042562939</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.056152152495947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003920717904485</v>
+        <v>1.038504512692941</v>
       </c>
       <c r="D8">
-        <v>1.022176705622299</v>
+        <v>1.050411511575345</v>
       </c>
       <c r="E8">
-        <v>1.01814379349734</v>
+        <v>1.047822417429976</v>
       </c>
       <c r="F8">
-        <v>1.025414099676061</v>
+        <v>1.054869039580241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048612326222587</v>
+        <v>1.058907760053063</v>
       </c>
       <c r="J8">
-        <v>1.025415796575602</v>
+        <v>1.059051831654962</v>
       </c>
       <c r="K8">
-        <v>1.033064430056734</v>
+        <v>1.060949326329386</v>
       </c>
       <c r="L8">
-        <v>1.029083478643765</v>
+        <v>1.058391343330654</v>
       </c>
       <c r="M8">
-        <v>1.036260482379236</v>
+        <v>1.06535373503849</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.060295223329308</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.054188945779567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9923532273602601</v>
+        <v>1.028223736973838</v>
       </c>
       <c r="D9">
-        <v>1.013506701660429</v>
+        <v>1.043368873425097</v>
       </c>
       <c r="E9">
-        <v>1.008408813932943</v>
+        <v>1.039741456122784</v>
       </c>
       <c r="F9">
-        <v>1.01458028585743</v>
+        <v>1.047381608584878</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045033351003841</v>
+        <v>1.055963254904388</v>
       </c>
       <c r="J9">
-        <v>1.018178932979914</v>
+        <v>1.05281775027027</v>
       </c>
       <c r="K9">
-        <v>1.026384378066918</v>
+        <v>1.055795434915326</v>
       </c>
       <c r="L9">
-        <v>1.02136692144191</v>
+        <v>1.052221059741622</v>
       </c>
       <c r="M9">
-        <v>1.027441155718299</v>
+        <v>1.059750035917561</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.055860375958448</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050541816969939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9842297735977328</v>
+        <v>1.021169773504994</v>
       </c>
       <c r="D10">
-        <v>1.00742399697946</v>
+        <v>1.038587456838339</v>
       </c>
       <c r="E10">
-        <v>1.001609166194647</v>
+        <v>1.034260174365634</v>
       </c>
       <c r="F10">
-        <v>1.007008142467174</v>
+        <v>1.042341027218821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042446915911159</v>
+        <v>1.053936238463033</v>
       </c>
       <c r="J10">
-        <v>1.013083362551624</v>
+        <v>1.048567934857509</v>
       </c>
       <c r="K10">
-        <v>1.02166049025075</v>
+        <v>1.052293284230368</v>
       </c>
       <c r="L10">
-        <v>1.015949427304124</v>
+        <v>1.048037227657301</v>
       </c>
       <c r="M10">
-        <v>1.02125200519926</v>
+        <v>1.055985686970412</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.052931753890994</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048082172334666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9806039002162017</v>
+        <v>1.018853129316276</v>
       </c>
       <c r="D11">
-        <v>1.00471150954851</v>
+        <v>1.037221479877428</v>
       </c>
       <c r="E11">
-        <v>0.9985837555032033</v>
+        <v>1.032710510286985</v>
       </c>
       <c r="F11">
-        <v>1.003637686132645</v>
+        <v>1.041151242563267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041275985662488</v>
+        <v>1.053517205208766</v>
       </c>
       <c r="J11">
-        <v>1.010806449284249</v>
+        <v>1.047462097476352</v>
       </c>
       <c r="K11">
-        <v>1.019545117329226</v>
+        <v>1.051474009410787</v>
       </c>
       <c r="L11">
-        <v>1.013532429633936</v>
+        <v>1.047040839282472</v>
       </c>
       <c r="M11">
-        <v>1.01849132553872</v>
+        <v>1.055336705907162</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.052847260181972</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047535223464695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.979239819081523</v>
+        <v>1.018290513453608</v>
       </c>
       <c r="D12">
-        <v>1.003691526303912</v>
+        <v>1.036988418518392</v>
       </c>
       <c r="E12">
-        <v>0.9974470891419495</v>
+        <v>1.032458789071285</v>
       </c>
       <c r="F12">
-        <v>1.002371169887971</v>
+        <v>1.041091174405204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040833071372677</v>
+        <v>1.053543467017338</v>
       </c>
       <c r="J12">
-        <v>1.009949536166359</v>
+        <v>1.047340462982349</v>
       </c>
       <c r="K12">
-        <v>1.018748342592361</v>
+        <v>1.05143970596893</v>
       </c>
       <c r="L12">
-        <v>1.012623362876946</v>
+        <v>1.046989475496385</v>
       </c>
       <c r="M12">
-        <v>1.017453082585152</v>
+        <v>1.055471316680026</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.05327528972905</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047510970571131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9795332173792967</v>
+        <v>1.019065428097748</v>
       </c>
       <c r="D13">
-        <v>1.003910889960151</v>
+        <v>1.037637363655582</v>
       </c>
       <c r="E13">
-        <v>0.9976915033569714</v>
+        <v>1.033212675568604</v>
       </c>
       <c r="F13">
-        <v>1.002643515257228</v>
+        <v>1.041924858895828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040928444423396</v>
+        <v>1.053933902364885</v>
       </c>
       <c r="J13">
-        <v>1.010133861940908</v>
+        <v>1.047994507398488</v>
       </c>
       <c r="K13">
-        <v>1.018919761602362</v>
+        <v>1.052035612781445</v>
       </c>
       <c r="L13">
-        <v>1.012818881491596</v>
+        <v>1.047688090528941</v>
       </c>
       <c r="M13">
-        <v>1.017676379992896</v>
+        <v>1.056249142927156</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P13">
+        <v>1.05416331045068</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.047929832541224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9804915031512286</v>
+        <v>1.020214398447268</v>
       </c>
       <c r="D14">
-        <v>1.004627455094387</v>
+        <v>1.038492493914901</v>
       </c>
       <c r="E14">
-        <v>0.9984900656191587</v>
+        <v>1.034196120454512</v>
       </c>
       <c r="F14">
-        <v>1.003533297784329</v>
+        <v>1.042913844942009</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041239538918796</v>
+        <v>1.054372442546528</v>
       </c>
       <c r="J14">
-        <v>1.010735847842902</v>
+        <v>1.048804249668219</v>
       </c>
       <c r="K14">
-        <v>1.019479483915536</v>
+        <v>1.052739326858141</v>
       </c>
       <c r="L14">
-        <v>1.013457519704111</v>
+        <v>1.048516893059495</v>
       </c>
       <c r="M14">
-        <v>1.018405769318415</v>
+        <v>1.057085408225138</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.054995669894193</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048428765958626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9810796152426023</v>
+        <v>1.020793713410549</v>
       </c>
       <c r="D15">
-        <v>1.005067285834817</v>
+        <v>1.03890281109636</v>
       </c>
       <c r="E15">
-        <v>0.9989803555458781</v>
+        <v>1.034665151509834</v>
       </c>
       <c r="F15">
-        <v>1.004079565197449</v>
+        <v>1.043363869845354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041430147319121</v>
+        <v>1.054564822895118</v>
       </c>
       <c r="J15">
-        <v>1.01110525367208</v>
+        <v>1.049180306430982</v>
       </c>
       <c r="K15">
-        <v>1.019822869065309</v>
+        <v>1.053058499855205</v>
       </c>
       <c r="L15">
-        <v>1.013849491814677</v>
+        <v>1.048893194731724</v>
       </c>
       <c r="M15">
-        <v>1.018853452538247</v>
+        <v>1.057444208585562</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.055316403981188</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.048660192654102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9844680450140143</v>
+        <v>1.023635958061505</v>
       </c>
       <c r="D16">
-        <v>1.007602306309222</v>
+        <v>1.040808315690879</v>
       </c>
       <c r="E16">
-        <v>1.00180818451023</v>
+        <v>1.036845975810331</v>
       </c>
       <c r="F16">
-        <v>1.007229829725218</v>
+        <v>1.045361825199983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042523525824444</v>
+        <v>1.05536328594272</v>
       </c>
       <c r="J16">
-        <v>1.013232940414289</v>
+        <v>1.050868315210309</v>
       </c>
       <c r="K16">
-        <v>1.021799363603852</v>
+        <v>1.054443251439596</v>
       </c>
       <c r="L16">
-        <v>1.016108286196562</v>
+        <v>1.050545554691714</v>
       </c>
       <c r="M16">
-        <v>1.021433465013484</v>
+        <v>1.058923249506803</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.056447166336704</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.049642335923424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9865638302787992</v>
+        <v>1.02521547002606</v>
       </c>
       <c r="D17">
-        <v>1.009170973940397</v>
+        <v>1.041823283861713</v>
       </c>
       <c r="E17">
-        <v>1.00355980636504</v>
+        <v>1.038004856685592</v>
       </c>
       <c r="F17">
-        <v>1.009180814446086</v>
+        <v>1.046373550036588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043195505294054</v>
+        <v>1.055744044470545</v>
       </c>
       <c r="J17">
-        <v>1.014548315628512</v>
+        <v>1.051737990214576</v>
       </c>
       <c r="K17">
-        <v>1.023020091089483</v>
+        <v>1.055135693080208</v>
       </c>
       <c r="L17">
-        <v>1.017505705852829</v>
+        <v>1.051377795208097</v>
       </c>
       <c r="M17">
-        <v>1.023029763086138</v>
+        <v>1.059614566481076</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.056866131563849</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050134440710408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877758815871227</v>
+        <v>1.025834466520644</v>
       </c>
       <c r="D18">
-        <v>1.010078408969511</v>
+        <v>1.042137447763898</v>
       </c>
       <c r="E18">
-        <v>1.004573721469868</v>
+        <v>1.038360202947233</v>
       </c>
       <c r="F18">
-        <v>1.010310003739178</v>
+        <v>1.046586125125938</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043582562820581</v>
+        <v>1.055783387179521</v>
       </c>
       <c r="J18">
-        <v>1.015308790790422</v>
+        <v>1.051955793918682</v>
       </c>
       <c r="K18">
-        <v>1.023725414430051</v>
+        <v>1.055266422192513</v>
       </c>
       <c r="L18">
-        <v>1.018313970799972</v>
+        <v>1.05154808601658</v>
       </c>
       <c r="M18">
-        <v>1.023953114938484</v>
+        <v>1.059646415401098</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.056656885234128</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050215443706042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9881874271364507</v>
+        <v>1.025621191075858</v>
       </c>
       <c r="D19">
-        <v>1.010386559952869</v>
+        <v>1.041856118153071</v>
       </c>
       <c r="E19">
-        <v>1.004918141943322</v>
+        <v>1.038022166323557</v>
       </c>
       <c r="F19">
-        <v>1.010693561182908</v>
+        <v>1.046104370198927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043713718144557</v>
+        <v>1.055541754731226</v>
       </c>
       <c r="J19">
-        <v>1.015566963140972</v>
+        <v>1.051620837835981</v>
       </c>
       <c r="K19">
-        <v>1.023964789385611</v>
+        <v>1.054928576051924</v>
       </c>
       <c r="L19">
-        <v>1.018588427634221</v>
+        <v>1.051154145183421</v>
       </c>
       <c r="M19">
-        <v>1.02426666055901</v>
+        <v>1.059111525227911</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.055913504924249</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.049982863640958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9863400534091786</v>
+        <v>1.023049698995505</v>
       </c>
       <c r="D20">
-        <v>1.009003455288244</v>
+        <v>1.039879470841089</v>
       </c>
       <c r="E20">
-        <v>1.003372683197423</v>
+        <v>1.035728083966943</v>
       </c>
       <c r="F20">
-        <v>1.00897240677656</v>
+        <v>1.043691003900031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043123916973284</v>
+        <v>1.054499168050809</v>
       </c>
       <c r="J20">
-        <v>1.014407891647801</v>
+        <v>1.049720124016062</v>
       </c>
       <c r="K20">
-        <v>1.022889815953032</v>
+        <v>1.053255550578743</v>
       </c>
       <c r="L20">
-        <v>1.017356486155743</v>
+        <v>1.049170501758957</v>
       </c>
       <c r="M20">
-        <v>1.022859300890821</v>
+        <v>1.057006771121509</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.053729452106824</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048803870219073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9802097969603119</v>
+        <v>1.017591772612007</v>
       </c>
       <c r="D21">
-        <v>1.004416793355437</v>
+        <v>1.036149543207187</v>
       </c>
       <c r="E21">
-        <v>0.9982552708221814</v>
+        <v>1.031452451629637</v>
       </c>
       <c r="F21">
-        <v>1.00327168823351</v>
+        <v>1.039716403333967</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041148152273603</v>
+        <v>1.052867792661929</v>
       </c>
       <c r="J21">
-        <v>1.010558891075125</v>
+        <v>1.046371967304317</v>
       </c>
       <c r="K21">
-        <v>1.019314968611376</v>
+        <v>1.050476957315714</v>
       </c>
       <c r="L21">
-        <v>1.013269773195489</v>
+        <v>1.045861481756155</v>
       </c>
       <c r="M21">
-        <v>1.01819134145137</v>
+        <v>1.05398247672046</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.051295820425181</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.046842548159931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9762549924944547</v>
+        <v>1.014115527332722</v>
       </c>
       <c r="D22">
-        <v>1.001460628689748</v>
+        <v>1.033784386366536</v>
       </c>
       <c r="E22">
-        <v>0.9949627593786248</v>
+        <v>1.028748419969906</v>
       </c>
       <c r="F22">
-        <v>0.9996026276023334</v>
+        <v>1.037220099629145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039859572680923</v>
+        <v>1.051828409351626</v>
       </c>
       <c r="J22">
-        <v>1.008073950363901</v>
+        <v>1.044248439670337</v>
       </c>
       <c r="K22">
-        <v>1.01700320566697</v>
+        <v>1.048715018229344</v>
       </c>
       <c r="L22">
-        <v>1.010634669839235</v>
+        <v>1.043771096841705</v>
       </c>
       <c r="M22">
-        <v>1.015181960629797</v>
+        <v>1.052088601744495</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.049796965876222</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04558353003498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783613836712666</v>
+        <v>1.015947571734284</v>
       </c>
       <c r="D23">
-        <v>1.003034828373603</v>
+        <v>1.035023526208198</v>
       </c>
       <c r="E23">
-        <v>0.9967155405093869</v>
+        <v>1.030169626925514</v>
       </c>
       <c r="F23">
-        <v>1.001555988942878</v>
+        <v>1.03853235782149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040547178216906</v>
+        <v>1.05237018976088</v>
       </c>
       <c r="J23">
-        <v>1.009397621833239</v>
+        <v>1.045361435272637</v>
       </c>
       <c r="K23">
-        <v>1.01823497982341</v>
+        <v>1.049634178771435</v>
       </c>
       <c r="L23">
-        <v>1.012038017790214</v>
+        <v>1.044866668692951</v>
       </c>
       <c r="M23">
-        <v>1.01678458586527</v>
+        <v>1.05308121214518</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.05058254007889</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.046223909330812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9864412005636516</v>
+        <v>1.023035582922732</v>
       </c>
       <c r="D24">
-        <v>1.009079173018269</v>
+        <v>1.039841260824064</v>
       </c>
       <c r="E24">
-        <v>1.00345726008176</v>
+        <v>1.035689494408415</v>
       </c>
       <c r="F24">
-        <v>1.009066604327477</v>
+        <v>1.043632620820521</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043156279762901</v>
+        <v>1.054461486194409</v>
       </c>
       <c r="J24">
-        <v>1.014471364051499</v>
+        <v>1.04967485062394</v>
       </c>
       <c r="K24">
-        <v>1.022948702365433</v>
+        <v>1.053203068375566</v>
       </c>
       <c r="L24">
-        <v>1.017423933165869</v>
+        <v>1.049117567750427</v>
       </c>
       <c r="M24">
-        <v>1.022936349294689</v>
+        <v>1.056934504386589</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.053632114448654</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.048739826157436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9954129001352495</v>
+        <v>1.030962016123611</v>
       </c>
       <c r="D25">
-        <v>1.015799292006401</v>
+        <v>1.045251821946228</v>
       </c>
       <c r="E25">
-        <v>1.01097768882587</v>
+        <v>1.041892983394572</v>
       </c>
       <c r="F25">
-        <v>1.01743993438431</v>
+        <v>1.049372995857377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045992843731655</v>
+        <v>1.056765823080827</v>
       </c>
       <c r="J25">
-        <v>1.020095630803012</v>
+        <v>1.054490498028847</v>
       </c>
       <c r="K25">
-        <v>1.028157197037746</v>
+        <v>1.057186047813258</v>
       </c>
       <c r="L25">
-        <v>1.023407947394462</v>
+        <v>1.05387399863058</v>
       </c>
       <c r="M25">
-        <v>1.029773418544562</v>
+        <v>1.061250328483289</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.057047731396739</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051553086442577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03701616665626</v>
+        <v>1.034264884200389</v>
       </c>
       <c r="D2">
-        <v>1.049381538252569</v>
+        <v>1.046062960717059</v>
       </c>
       <c r="E2">
-        <v>1.046645843090188</v>
+        <v>1.044302435259152</v>
       </c>
       <c r="F2">
-        <v>1.05377815745399</v>
+        <v>1.051348981797398</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058478526763793</v>
+        <v>1.05690325178609</v>
       </c>
       <c r="J2">
-        <v>1.058143415541375</v>
+        <v>1.055466903176427</v>
       </c>
       <c r="K2">
-        <v>1.060193248604392</v>
+        <v>1.056915804522729</v>
       </c>
       <c r="L2">
-        <v>1.057491438602673</v>
+        <v>1.055177232883427</v>
       </c>
       <c r="M2">
-        <v>1.064535868233287</v>
+        <v>1.06213645841824</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.059647953473298</v>
+        <v>1.057749027878541</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053631914737211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051323171433503</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026831915442768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041322298481187</v>
+        <v>1.038362629404677</v>
       </c>
       <c r="D3">
-        <v>1.052338185243781</v>
+        <v>1.048773044350545</v>
       </c>
       <c r="E3">
-        <v>1.050043124996597</v>
+        <v>1.047506849330067</v>
       </c>
       <c r="F3">
-        <v>1.05692993013364</v>
+        <v>1.054314734762797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059690172928144</v>
+        <v>1.057976696620068</v>
       </c>
       <c r="J3">
-        <v>1.06074653236941</v>
+        <v>1.057859447805349</v>
       </c>
       <c r="K3">
-        <v>1.062342479170216</v>
+        <v>1.058817698954402</v>
       </c>
       <c r="L3">
-        <v>1.060073362377272</v>
+        <v>1.057565919977061</v>
       </c>
       <c r="M3">
-        <v>1.066882735030714</v>
+        <v>1.064296797171242</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.061505291291432</v>
+        <v>1.059458749589881</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.055148937872695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052665038336521</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027262147482884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044057735863261</v>
+        <v>1.040967513817678</v>
       </c>
       <c r="D4">
-        <v>1.0542203435262</v>
+        <v>1.050499917558377</v>
       </c>
       <c r="E4">
-        <v>1.052206708448429</v>
+        <v>1.049549549744378</v>
       </c>
       <c r="F4">
-        <v>1.058938757368128</v>
+        <v>1.05620673093052</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060451923566845</v>
+        <v>1.05865149961969</v>
       </c>
       <c r="J4">
-        <v>1.062397850597573</v>
+        <v>1.05937830841966</v>
       </c>
       <c r="K4">
-        <v>1.063705620507059</v>
+        <v>1.060024788096517</v>
       </c>
       <c r="L4">
-        <v>1.061713372405594</v>
+        <v>1.05908458942984</v>
       </c>
       <c r="M4">
-        <v>1.068374309109834</v>
+        <v>1.06567100805265</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.062685738145802</v>
+        <v>1.060546316951961</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.056113634487789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.053519481658097</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027532793767816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045201235800189</v>
+        <v>1.042056752088001</v>
       </c>
       <c r="D5">
-        <v>1.055010231889738</v>
+        <v>1.051225156420164</v>
       </c>
       <c r="E5">
-        <v>1.053113248259138</v>
+        <v>1.050405804197679</v>
       </c>
       <c r="F5">
-        <v>1.05978078039313</v>
+        <v>1.057000143519204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060770537307671</v>
+        <v>1.058933856342885</v>
       </c>
       <c r="J5">
-        <v>1.063089563307803</v>
+        <v>1.060014861196373</v>
       </c>
       <c r="K5">
-        <v>1.064278037239134</v>
+        <v>1.060532177078516</v>
       </c>
       <c r="L5">
-        <v>1.062400664319641</v>
+        <v>1.059721359204799</v>
       </c>
       <c r="M5">
-        <v>1.068999646687586</v>
+        <v>1.066247469724551</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.063180636115802</v>
+        <v>1.06100253534118</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056525379521228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053885964028681</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027646727823425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045399031447801</v>
+        <v>1.042245058142583</v>
       </c>
       <c r="D6">
-        <v>1.055149549887087</v>
+        <v>1.051353250468896</v>
       </c>
       <c r="E6">
-        <v>1.053271115609409</v>
+        <v>1.050554832389443</v>
       </c>
       <c r="F6">
-        <v>1.059927368843617</v>
+        <v>1.057138241537373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060828113517845</v>
+        <v>1.058985038705618</v>
       </c>
       <c r="J6">
-        <v>1.063211595196359</v>
+        <v>1.060127255341847</v>
       </c>
       <c r="K6">
-        <v>1.06438081293716</v>
+        <v>1.060623665755357</v>
       </c>
       <c r="L6">
-        <v>1.062521708416823</v>
+        <v>1.059833525929948</v>
       </c>
       <c r="M6">
-        <v>1.069109842499846</v>
+        <v>1.066349131479528</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.06326784607315</v>
+        <v>1.06108299159407</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.056606601393967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053960078901317</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027668156266965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044090571033388</v>
+        <v>1.040998419411092</v>
       </c>
       <c r="D7">
-        <v>1.054250100751364</v>
+        <v>1.050527635221655</v>
       </c>
       <c r="E7">
-        <v>1.052235409016833</v>
+        <v>1.049576337910819</v>
       </c>
       <c r="F7">
-        <v>1.058965213860593</v>
+        <v>1.056231499383688</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060468049819226</v>
+        <v>1.058666202727849</v>
       </c>
       <c r="J7">
-        <v>1.062424234325125</v>
+        <v>1.059402775355559</v>
       </c>
       <c r="K7">
-        <v>1.063732265714502</v>
+        <v>1.060049399668779</v>
       </c>
       <c r="L7">
-        <v>1.061738963634756</v>
+        <v>1.05910827742799</v>
       </c>
       <c r="M7">
-        <v>1.068397708054762</v>
+        <v>1.065692725490788</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.0627042562939</v>
+        <v>1.060563504386849</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.056152152495947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05355857114024</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027540817642104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038504512692941</v>
+        <v>1.035680242970013</v>
       </c>
       <c r="D8">
-        <v>1.050411511575345</v>
+        <v>1.047007106637861</v>
       </c>
       <c r="E8">
-        <v>1.047822417429976</v>
+        <v>1.045411300198058</v>
       </c>
       <c r="F8">
-        <v>1.054869039580241</v>
+        <v>1.05237482925762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058907760053063</v>
+        <v>1.057283974288998</v>
       </c>
       <c r="J8">
-        <v>1.059051831654962</v>
+        <v>1.056301742042024</v>
       </c>
       <c r="K8">
-        <v>1.060949326329386</v>
+        <v>1.057585869048382</v>
       </c>
       <c r="L8">
-        <v>1.058391343330654</v>
+        <v>1.056009370745908</v>
       </c>
       <c r="M8">
-        <v>1.06535373503849</v>
+        <v>1.062889178875669</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.060295223329308</v>
+        <v>1.058344741601118</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.054188945779567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.0518216655724</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026987177289148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028223736973838</v>
+        <v>1.025908835106754</v>
       </c>
       <c r="D9">
-        <v>1.043368873425097</v>
+        <v>1.040561525766943</v>
       </c>
       <c r="E9">
-        <v>1.039741456122784</v>
+        <v>1.037801283297813</v>
       </c>
       <c r="F9">
-        <v>1.047381608584878</v>
+        <v>1.04534003875327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055963254904388</v>
+        <v>1.054674863083876</v>
       </c>
       <c r="J9">
-        <v>1.05281775027027</v>
+        <v>1.050578727677539</v>
       </c>
       <c r="K9">
-        <v>1.055795434915326</v>
+        <v>1.053029096803341</v>
       </c>
       <c r="L9">
-        <v>1.052221059741622</v>
+        <v>1.050309450541696</v>
       </c>
       <c r="M9">
-        <v>1.059750035917561</v>
+        <v>1.057737972455576</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.055860375958448</v>
+        <v>1.054267993973431</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050541816969939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048596442804436</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025940025972835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021169773504994</v>
+        <v>1.019208472169228</v>
       </c>
       <c r="D10">
-        <v>1.038587456838339</v>
+        <v>1.036190733409009</v>
       </c>
       <c r="E10">
-        <v>1.034260174365634</v>
+        <v>1.032644998679751</v>
       </c>
       <c r="F10">
-        <v>1.042341027218821</v>
+        <v>1.040611907433483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053936238463033</v>
+        <v>1.052876897800115</v>
       </c>
       <c r="J10">
-        <v>1.048567934857509</v>
+        <v>1.046680178767689</v>
       </c>
       <c r="K10">
-        <v>1.052293284230368</v>
+        <v>1.049935915669747</v>
       </c>
       <c r="L10">
-        <v>1.048037227657301</v>
+        <v>1.046448834328933</v>
       </c>
       <c r="M10">
-        <v>1.055985686970412</v>
+        <v>1.054284674241253</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052931753890994</v>
+        <v>1.051585619050688</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048082172334666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046427643779663</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025227155144169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018853129316276</v>
+        <v>1.016944025639207</v>
       </c>
       <c r="D11">
-        <v>1.037221479877428</v>
+        <v>1.034899259366423</v>
       </c>
       <c r="E11">
-        <v>1.032710510286985</v>
+        <v>1.031135021843326</v>
       </c>
       <c r="F11">
-        <v>1.041151242563267</v>
+        <v>1.039471718839895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053517205208766</v>
+        <v>1.052483707719441</v>
       </c>
       <c r="J11">
-        <v>1.047462097476352</v>
+        <v>1.045628515439058</v>
       </c>
       <c r="K11">
-        <v>1.051474009410787</v>
+        <v>1.049191730056493</v>
       </c>
       <c r="L11">
-        <v>1.047040839282472</v>
+        <v>1.04549273050768</v>
       </c>
       <c r="M11">
-        <v>1.055336705907162</v>
+        <v>1.053685765160264</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052847260181972</v>
+        <v>1.051541387172649</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047535223464695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045937014890766</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025133827036827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018290513453608</v>
+        <v>1.016357752051112</v>
       </c>
       <c r="D12">
-        <v>1.036988418518392</v>
+        <v>1.034650301177679</v>
       </c>
       <c r="E12">
-        <v>1.032458789071285</v>
+        <v>1.030855086038922</v>
       </c>
       <c r="F12">
-        <v>1.041091174405204</v>
+        <v>1.039393726957459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053543467017338</v>
+        <v>1.052488637937006</v>
       </c>
       <c r="J12">
-        <v>1.047340462982349</v>
+        <v>1.045485601624021</v>
       </c>
       <c r="K12">
-        <v>1.05143970596893</v>
+        <v>1.049142460543556</v>
       </c>
       <c r="L12">
-        <v>1.046989475496385</v>
+        <v>1.045414100401689</v>
       </c>
       <c r="M12">
-        <v>1.055471316680026</v>
+        <v>1.053803216233846</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.05327528972905</v>
+        <v>1.051956277557623</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047510970571131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045902181400918</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025182636143479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019065428097748</v>
+        <v>1.017047317813256</v>
       </c>
       <c r="D13">
-        <v>1.037637363655582</v>
+        <v>1.035210929397666</v>
       </c>
       <c r="E13">
-        <v>1.033212675568604</v>
+        <v>1.031525072822307</v>
       </c>
       <c r="F13">
-        <v>1.041924858895828</v>
+        <v>1.040154943200253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053933902364885</v>
+        <v>1.052818859293477</v>
       </c>
       <c r="J13">
-        <v>1.047994507398488</v>
+        <v>1.046057275871304</v>
       </c>
       <c r="K13">
-        <v>1.052035612781445</v>
+        <v>1.049651389360112</v>
       </c>
       <c r="L13">
-        <v>1.047688090528941</v>
+        <v>1.046030145377749</v>
       </c>
       <c r="M13">
-        <v>1.056249142927156</v>
+        <v>1.054509665104251</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.05416331045068</v>
+        <v>1.052788195334601</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.047929832541224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046259299339012</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025354433240346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020214398447268</v>
+        <v>1.018109309731626</v>
       </c>
       <c r="D14">
-        <v>1.038492493914901</v>
+        <v>1.035971982371044</v>
       </c>
       <c r="E14">
-        <v>1.034196120454512</v>
+        <v>1.032425265573592</v>
       </c>
       <c r="F14">
-        <v>1.042913844942009</v>
+        <v>1.041069045779066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054372442546528</v>
+        <v>1.053198055652796</v>
       </c>
       <c r="J14">
-        <v>1.048804249668219</v>
+        <v>1.046782261689014</v>
       </c>
       <c r="K14">
-        <v>1.052739326858141</v>
+        <v>1.050262096625127</v>
       </c>
       <c r="L14">
-        <v>1.048516893059495</v>
+        <v>1.046776746030632</v>
       </c>
       <c r="M14">
-        <v>1.057085408225138</v>
+        <v>1.055271914804238</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054995669894193</v>
+        <v>1.053562232565957</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048428765958626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046692608399855</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025530829243889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020793713410549</v>
+        <v>1.018653350044493</v>
       </c>
       <c r="D15">
-        <v>1.03890281109636</v>
+        <v>1.03634285005636</v>
       </c>
       <c r="E15">
-        <v>1.034665151509834</v>
+        <v>1.032861232292142</v>
       </c>
       <c r="F15">
-        <v>1.043363869845354</v>
+        <v>1.041488370164831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054564822895118</v>
+        <v>1.053366990908933</v>
       </c>
       <c r="J15">
-        <v>1.049180306430982</v>
+        <v>1.047123677717839</v>
       </c>
       <c r="K15">
-        <v>1.053058499855205</v>
+        <v>1.050542156574896</v>
       </c>
       <c r="L15">
-        <v>1.048893194731724</v>
+        <v>1.047120308899773</v>
       </c>
       <c r="M15">
-        <v>1.057444208585562</v>
+        <v>1.05560028579225</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.055316403981188</v>
+        <v>1.053858952065106</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048660192654102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046896953020035</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025603907198881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023635958061505</v>
+        <v>1.021362455449885</v>
       </c>
       <c r="D16">
-        <v>1.040808315690879</v>
+        <v>1.038091443911787</v>
       </c>
       <c r="E16">
-        <v>1.036845975810331</v>
+        <v>1.034921393711361</v>
       </c>
       <c r="F16">
-        <v>1.045361825199983</v>
+        <v>1.043368440990118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05536328594272</v>
+        <v>1.054080720318224</v>
       </c>
       <c r="J16">
-        <v>1.050868315210309</v>
+        <v>1.048679254218946</v>
       </c>
       <c r="K16">
-        <v>1.054443251439596</v>
+        <v>1.05177063539911</v>
       </c>
       <c r="L16">
-        <v>1.050545554691714</v>
+        <v>1.048652600722108</v>
       </c>
       <c r="M16">
-        <v>1.058923249506803</v>
+        <v>1.056961944970806</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.056447166336704</v>
+        <v>1.05489689089298</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049642335923424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047768907373659</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025880366701975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02521547002606</v>
+        <v>1.022885355694339</v>
       </c>
       <c r="D17">
-        <v>1.041823283861713</v>
+        <v>1.039035323825537</v>
       </c>
       <c r="E17">
-        <v>1.038004856685592</v>
+        <v>1.036031138399315</v>
       </c>
       <c r="F17">
-        <v>1.046373550036588</v>
+        <v>1.044328861785579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055744044470545</v>
+        <v>1.054427405452389</v>
       </c>
       <c r="J17">
-        <v>1.051737990214576</v>
+        <v>1.049491627548389</v>
       </c>
       <c r="K17">
-        <v>1.055135693080208</v>
+        <v>1.052391871341555</v>
       </c>
       <c r="L17">
-        <v>1.051377795208097</v>
+        <v>1.049435588366544</v>
       </c>
       <c r="M17">
-        <v>1.059614566481076</v>
+        <v>1.057601860525379</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.056866131563849</v>
+        <v>1.055275071230571</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050134440710408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048210916454054</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025999114980593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025834466520644</v>
+        <v>1.023510686739964</v>
       </c>
       <c r="D18">
-        <v>1.042137447763898</v>
+        <v>1.039348314766935</v>
       </c>
       <c r="E18">
-        <v>1.038360202947233</v>
+        <v>1.036396855781433</v>
       </c>
       <c r="F18">
-        <v>1.046586125125938</v>
+        <v>1.044544764426003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055783387179521</v>
+        <v>1.054475126571358</v>
       </c>
       <c r="J18">
-        <v>1.051955793918682</v>
+        <v>1.049713995818166</v>
       </c>
       <c r="K18">
-        <v>1.055266422192513</v>
+        <v>1.052520734696937</v>
       </c>
       <c r="L18">
-        <v>1.05154808601658</v>
+        <v>1.049615575599335</v>
       </c>
       <c r="M18">
-        <v>1.059646415401098</v>
+        <v>1.057636478993981</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.056656885234128</v>
+        <v>1.05506769125324</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050215443706042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048289459500216</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025983613280789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025621191075858</v>
+        <v>1.02335587732985</v>
       </c>
       <c r="D19">
-        <v>1.041856118153071</v>
+        <v>1.039124510279001</v>
       </c>
       <c r="E19">
-        <v>1.038022166323557</v>
+        <v>1.036118167381576</v>
       </c>
       <c r="F19">
-        <v>1.046104370198927</v>
+        <v>1.044111746248547</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055541754731226</v>
+        <v>1.054276703440362</v>
       </c>
       <c r="J19">
-        <v>1.051620837835981</v>
+        <v>1.049435018862509</v>
       </c>
       <c r="K19">
-        <v>1.054928576051924</v>
+        <v>1.052239318083078</v>
       </c>
       <c r="L19">
-        <v>1.051154145183421</v>
+        <v>1.049279914633757</v>
       </c>
       <c r="M19">
-        <v>1.059111525227911</v>
+        <v>1.057149446852908</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.055913504924249</v>
+        <v>1.054361658830081</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.049982863640958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048097404971905</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025861239819545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023049698995505</v>
+        <v>1.020991131964452</v>
       </c>
       <c r="D20">
-        <v>1.039879470841089</v>
+        <v>1.037371173360293</v>
       </c>
       <c r="E20">
-        <v>1.035728083966943</v>
+        <v>1.03402312665326</v>
       </c>
       <c r="F20">
-        <v>1.043691003900031</v>
+        <v>1.041876271458497</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054499168050809</v>
+        <v>1.05337653105368</v>
       </c>
       <c r="J20">
-        <v>1.049720124016062</v>
+        <v>1.047736191822398</v>
       </c>
       <c r="K20">
-        <v>1.053255550578743</v>
+        <v>1.050787253626121</v>
       </c>
       <c r="L20">
-        <v>1.049170501758957</v>
+        <v>1.047492987228809</v>
       </c>
       <c r="M20">
-        <v>1.057006771121509</v>
+        <v>1.055220683971179</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.053729452106824</v>
+        <v>1.052315975590445</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048803870219073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047075030279948</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025431505671841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017591772612007</v>
+        <v>1.015823595618836</v>
       </c>
       <c r="D21">
-        <v>1.036149543207187</v>
+        <v>1.033973411277453</v>
       </c>
       <c r="E21">
-        <v>1.031452451629637</v>
+        <v>1.030015346669394</v>
       </c>
       <c r="F21">
-        <v>1.039716403333967</v>
+        <v>1.038156563727246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052867792661929</v>
+        <v>1.051933383067476</v>
       </c>
       <c r="J21">
-        <v>1.046371967304317</v>
+        <v>1.044674319274302</v>
       </c>
       <c r="K21">
-        <v>1.050476957315714</v>
+        <v>1.048338518232743</v>
       </c>
       <c r="L21">
-        <v>1.045861481756155</v>
+        <v>1.044449540432057</v>
       </c>
       <c r="M21">
-        <v>1.05398247672046</v>
+        <v>1.052449395258303</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051295820425181</v>
+        <v>1.050082506075753</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046842548159931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045347260321033</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024847179159235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014115527332722</v>
+        <v>1.012532550760101</v>
       </c>
       <c r="D22">
-        <v>1.033784386366536</v>
+        <v>1.031818941473635</v>
       </c>
       <c r="E22">
-        <v>1.028748419969906</v>
+        <v>1.027481501622159</v>
       </c>
       <c r="F22">
-        <v>1.037220099629145</v>
+        <v>1.03582231241262</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051828409351626</v>
+        <v>1.051012974691961</v>
       </c>
       <c r="J22">
-        <v>1.044248439670337</v>
+        <v>1.04273236579483</v>
       </c>
       <c r="K22">
-        <v>1.048715018229344</v>
+        <v>1.046785357653992</v>
       </c>
       <c r="L22">
-        <v>1.043771096841705</v>
+        <v>1.04252751976303</v>
       </c>
       <c r="M22">
-        <v>1.052088601744495</v>
+        <v>1.050716026764402</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.049796965876222</v>
+        <v>1.048710677792777</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04558353003498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.044234551497071</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024475763221457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015947571734284</v>
+        <v>1.014267384922061</v>
       </c>
       <c r="D23">
-        <v>1.035023526208198</v>
+        <v>1.032947334355658</v>
       </c>
       <c r="E23">
-        <v>1.030169626925514</v>
+        <v>1.02881359443412</v>
       </c>
       <c r="F23">
-        <v>1.03853235782149</v>
+        <v>1.037049538180804</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05237018976088</v>
+        <v>1.051492590824217</v>
       </c>
       <c r="J23">
-        <v>1.045361435272637</v>
+        <v>1.043750131074371</v>
       </c>
       <c r="K23">
-        <v>1.049634178771435</v>
+        <v>1.04759480981019</v>
       </c>
       <c r="L23">
-        <v>1.044866668692951</v>
+        <v>1.043534960015018</v>
       </c>
       <c r="M23">
-        <v>1.05308121214518</v>
+        <v>1.05162444208219</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.05058254007889</v>
+        <v>1.049429619192986</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046223909330812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044796414768184</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024667145152502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023035582922732</v>
+        <v>1.020984643218682</v>
       </c>
       <c r="D24">
-        <v>1.039841260824064</v>
+        <v>1.03734005411787</v>
       </c>
       <c r="E24">
-        <v>1.035689494408415</v>
+        <v>1.033992497658937</v>
       </c>
       <c r="F24">
-        <v>1.043632620820521</v>
+        <v>1.041824204717411</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054461486194409</v>
+        <v>1.053344722768986</v>
       </c>
       <c r="J24">
-        <v>1.04967485062394</v>
+        <v>1.047698167521857</v>
       </c>
       <c r="K24">
-        <v>1.053203068375566</v>
+        <v>1.050741701666257</v>
       </c>
       <c r="L24">
-        <v>1.049117567750427</v>
+        <v>1.047447853127108</v>
       </c>
       <c r="M24">
-        <v>1.056934504386589</v>
+        <v>1.055154601382039</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.053632114448654</v>
+        <v>1.052223464307465</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048739826157436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04701320175422</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025409931736856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030962016123611</v>
+        <v>1.028508541799422</v>
       </c>
       <c r="D25">
-        <v>1.045251821946228</v>
+        <v>1.042283467373375</v>
       </c>
       <c r="E25">
-        <v>1.041892983394572</v>
+        <v>1.039824581123504</v>
       </c>
       <c r="F25">
-        <v>1.049372995857377</v>
+        <v>1.047208718404564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056765823080827</v>
+        <v>1.055386380253274</v>
       </c>
       <c r="J25">
-        <v>1.054490498028847</v>
+        <v>1.052113148473895</v>
       </c>
       <c r="K25">
-        <v>1.057186047813258</v>
+        <v>1.054259023524931</v>
       </c>
       <c r="L25">
-        <v>1.05387399863058</v>
+        <v>1.05183459962819</v>
       </c>
       <c r="M25">
-        <v>1.061250328483289</v>
+        <v>1.059115858723257</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.057047731396739</v>
+        <v>1.055358477467611</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051553086442577</v>
+        <v>1.049496917503593</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026228962446528</v>
       </c>
     </row>
   </sheetData>
